--- a/baza_danych_kcal.xlsx
+++ b/baza_danych_kcal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\SEMESTR IV\IG2 - Informatyka geodezyjna 2\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21970890-0857-4BAA-B223-1EBE507B1A8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149CB663-9CC0-4C3E-A285-C79C9AC6C63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AEEA2BB0-8453-4D43-BAA4-AEDBCA39A16F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="1200">
   <si>
     <t>Nazwa produktu</t>
   </si>
@@ -1819,13 +1819,1822 @@
     <t xml:space="preserve">Kasza manna </t>
   </si>
   <si>
-    <t>Weglowodany /100g</t>
-  </si>
-  <si>
-    <t>Bialko /100g</t>
-  </si>
-  <si>
-    <t>Tluszcz /100g</t>
+    <t>Szynka z kurczaka</t>
+  </si>
+  <si>
+    <t>NazwaProduktu</t>
+  </si>
+  <si>
+    <t>Agrest</t>
+  </si>
+  <si>
+    <t>Ananas</t>
+  </si>
+  <si>
+    <t>Ananas, plastry w syropie</t>
+  </si>
+  <si>
+    <t>Ananasy, dżem niskosłodzony</t>
+  </si>
+  <si>
+    <t>Arbuz</t>
+  </si>
+  <si>
+    <t>Awokado</t>
+  </si>
+  <si>
+    <t>Babka biszkoptowa</t>
+  </si>
+  <si>
+    <t>Bagietki francuskie</t>
+  </si>
+  <si>
+    <t>Bakłażan</t>
+  </si>
+  <si>
+    <t>Baleron gotowany</t>
+  </si>
+  <si>
+    <t>Banan</t>
+  </si>
+  <si>
+    <t>Baranina, łopatka</t>
+  </si>
+  <si>
+    <t>Baranina, udziec</t>
+  </si>
+  <si>
+    <t>Barszcz czerwony zabielany</t>
+  </si>
+  <si>
+    <t>Barszcz ukraiński</t>
+  </si>
+  <si>
+    <t>Barszcz ukraiński mrożony</t>
+  </si>
+  <si>
+    <t>Barszcz z boćwiną</t>
+  </si>
+  <si>
+    <t>Baton Bounty</t>
+  </si>
+  <si>
+    <t>Baton Mars</t>
+  </si>
+  <si>
+    <t>Baton Milky Way</t>
+  </si>
+  <si>
+    <t>Baton Snickers</t>
+  </si>
+  <si>
+    <t>Baton szynkowy z indyka</t>
+  </si>
+  <si>
+    <t>Baton Twix</t>
+  </si>
+  <si>
+    <t>Baton z kurczaka</t>
+  </si>
+  <si>
+    <t>Befsztyk bity wiejski</t>
+  </si>
+  <si>
+    <t>Białko jaja kurzego</t>
+  </si>
+  <si>
+    <t>Bigos</t>
+  </si>
+  <si>
+    <t>Bitki wieprzowe</t>
+  </si>
+  <si>
+    <t>Bitki wieprzowe w jarzynach</t>
+  </si>
+  <si>
+    <t>Bitki wołowe</t>
+  </si>
+  <si>
+    <t>Bitki wołowe w jarzynach</t>
+  </si>
+  <si>
+    <t>Bliny ziemniaczane</t>
+  </si>
+  <si>
+    <t>Boćwina</t>
+  </si>
+  <si>
+    <t>Boeuf Strogonow</t>
+  </si>
+  <si>
+    <t>Bób</t>
+  </si>
+  <si>
+    <t>Brokuły</t>
+  </si>
+  <si>
+    <t>Brokuły mrożone</t>
+  </si>
+  <si>
+    <t>Brukselka</t>
+  </si>
+  <si>
+    <t>Brukselka mrożona</t>
+  </si>
+  <si>
+    <t>Brukselka z wody</t>
+  </si>
+  <si>
+    <t>Bryzol wołowy z polędwicy</t>
+  </si>
+  <si>
+    <t>Brzoskwinia</t>
+  </si>
+  <si>
+    <t>Brzoskwinie w syropie</t>
+  </si>
+  <si>
+    <t>Brzoskwinie, dżem niskosłodzony</t>
+  </si>
+  <si>
+    <t>Buchty drożdżowe</t>
+  </si>
+  <si>
+    <t>Budyń z mięsa i makaronu</t>
+  </si>
+  <si>
+    <t>Bułka tarta</t>
+  </si>
+  <si>
+    <t>Bułki grahamki</t>
+  </si>
+  <si>
+    <t>Bułki kajzerki</t>
+  </si>
+  <si>
+    <t>Bułki maślane</t>
+  </si>
+  <si>
+    <t>Bułki pszenne zwykłe</t>
+  </si>
+  <si>
+    <t>Bułki wrocławskie</t>
+  </si>
+  <si>
+    <t>Burak</t>
+  </si>
+  <si>
+    <t>Buraki mrożone, puree</t>
+  </si>
+  <si>
+    <t>Buraki z jabłkami</t>
+  </si>
+  <si>
+    <t>Buraki zasmażane</t>
+  </si>
+  <si>
+    <t>Buraki ze śmietaną</t>
+  </si>
+  <si>
+    <t>Cebula</t>
+  </si>
+  <si>
+    <t>Chałki</t>
+  </si>
+  <si>
+    <t>Chipsy bekonowe</t>
+  </si>
+  <si>
+    <t>Chipsy paprykowe</t>
+  </si>
+  <si>
+    <t>Chipsy solone</t>
+  </si>
+  <si>
+    <t>Chleb baltonowski</t>
+  </si>
+  <si>
+    <t>Chleb chrupki</t>
+  </si>
+  <si>
+    <t>Chleb Graham</t>
+  </si>
+  <si>
+    <t>Chleb mazowiecki</t>
+  </si>
+  <si>
+    <t>Chleb mieszany słonecznikowy</t>
+  </si>
+  <si>
+    <t>Chleb mieszany sojowy</t>
+  </si>
+  <si>
+    <t>Chleb praski</t>
+  </si>
+  <si>
+    <t>Chleb pszenny</t>
+  </si>
+  <si>
+    <t>Chleb staropolski</t>
+  </si>
+  <si>
+    <t>Chleb wiejski</t>
+  </si>
+  <si>
+    <t>Chleb zwykły</t>
+  </si>
+  <si>
+    <t>Chleb żytni jasny</t>
+  </si>
+  <si>
+    <t>Chleb żytni jasny mleczny</t>
+  </si>
+  <si>
+    <t>Chleb żytni pełnoziarnisty</t>
+  </si>
+  <si>
+    <t>Chleb żytni razowy</t>
+  </si>
+  <si>
+    <t>Chleb żytni razowy na miodzie</t>
+  </si>
+  <si>
+    <t>Chleb żytni razowy z soją i słonecznikiem</t>
+  </si>
+  <si>
+    <t>Chleb żytni wileński</t>
+  </si>
+  <si>
+    <t>Chrupki kukurydziane</t>
+  </si>
+  <si>
+    <t>Chrzan</t>
+  </si>
+  <si>
+    <t>Ciastka francuskie ze śliwkami</t>
+  </si>
+  <si>
+    <t>Ciastka Karpatki</t>
+  </si>
+  <si>
+    <t>Ciastka Napoleonki</t>
+  </si>
+  <si>
+    <t>Ciastka tortowe z owocami</t>
+  </si>
+  <si>
+    <t>Ciasto drożdżowe</t>
+  </si>
+  <si>
+    <t>Ciasto kruche podstawowe</t>
+  </si>
+  <si>
+    <t>Ciasto naleśnikowe bez piany</t>
+  </si>
+  <si>
+    <t>Ciasto naleśnikowe biszkoptowe</t>
+  </si>
+  <si>
+    <t>Cielęcina w potrawce</t>
+  </si>
+  <si>
+    <t>Cielęcina, łopatka</t>
+  </si>
+  <si>
+    <t>Cielęcina, sznyclówka</t>
+  </si>
+  <si>
+    <t>Cielęcina, udziec</t>
+  </si>
+  <si>
+    <t>Coca Cola</t>
+  </si>
+  <si>
+    <t>Cukier</t>
+  </si>
+  <si>
+    <t>Cukierki irysy</t>
+  </si>
+  <si>
+    <t>Cukierki krówki</t>
+  </si>
+  <si>
+    <t>Cukinia</t>
+  </si>
+  <si>
+    <t>Cykoria</t>
+  </si>
+  <si>
+    <t>Cytryna</t>
+  </si>
+  <si>
+    <t>Czarne jagody</t>
+  </si>
+  <si>
+    <t>Czarne porzeczki, dżem niskosłodzony</t>
+  </si>
+  <si>
+    <t>Czarne porzeczki, dżem wysokosłodzony</t>
+  </si>
+  <si>
+    <t>Czekolada biała</t>
+  </si>
+  <si>
+    <t>Czekolada deserowa</t>
+  </si>
+  <si>
+    <t>Czekolada gorzka</t>
+  </si>
+  <si>
+    <t>Czekolada kawowa</t>
+  </si>
+  <si>
+    <t>Czekolada mleczna</t>
+  </si>
+  <si>
+    <t>Czekolada mleczna z orzechami laskowymi</t>
+  </si>
+  <si>
+    <t>Czekolada nadziewana</t>
+  </si>
+  <si>
+    <t>Czereśnie</t>
+  </si>
+  <si>
+    <t>Czosnek</t>
+  </si>
+  <si>
+    <t>Ćwikła</t>
+  </si>
+  <si>
+    <t>Daktyle suszone</t>
+  </si>
+  <si>
+    <t>Delicje szampańskie</t>
+  </si>
+  <si>
+    <t>Deser ryżowy jabłkowy</t>
+  </si>
+  <si>
+    <t>Deser ryżowy waniliowy</t>
+  </si>
+  <si>
+    <t>Deser twarogowy termizowany kakaowy</t>
+  </si>
+  <si>
+    <t>Deser twarogowy termizowany truskawkowy</t>
+  </si>
+  <si>
+    <t>Dorsz świeży</t>
+  </si>
+  <si>
+    <t>Dorsz świeży, filety bez skóry</t>
+  </si>
+  <si>
+    <t>Dorsz w jarzynach</t>
+  </si>
+  <si>
+    <t>Dorsz wędzony</t>
+  </si>
+  <si>
+    <t>Dorsz z rusztu</t>
+  </si>
+  <si>
+    <t>Dorsz, filety po grecku</t>
+  </si>
+  <si>
+    <t>Dorsz, filety smażone panierowane</t>
+  </si>
+  <si>
+    <t>Dorsz, kotlet mielony</t>
+  </si>
+  <si>
+    <t>Dorsz, pulpety</t>
+  </si>
+  <si>
+    <t>Dorsz, sałatka</t>
+  </si>
+  <si>
+    <t>Dynia</t>
+  </si>
+  <si>
+    <t>Dynia z pomidorami</t>
+  </si>
+  <si>
+    <t>Dynia, pestki</t>
+  </si>
+  <si>
+    <t>Eklerki z bitą śmietaną</t>
+  </si>
+  <si>
+    <t>Fasola biała, suche nasiona</t>
+  </si>
+  <si>
+    <t>Fasola cięta konserwowa</t>
+  </si>
+  <si>
+    <t>Fasola szparagowa</t>
+  </si>
+  <si>
+    <t>Fasolka flageolet konserwowa</t>
+  </si>
+  <si>
+    <t>Fasolka po bretońsku</t>
+  </si>
+  <si>
+    <t>Fasolka szparagowa</t>
+  </si>
+  <si>
+    <t>Fasolka szparagowa mrożona</t>
+  </si>
+  <si>
+    <t>Figi suszone</t>
+  </si>
+  <si>
+    <t>Flaki</t>
+  </si>
+  <si>
+    <t>Flądra świeża</t>
+  </si>
+  <si>
+    <t>Galaretka z nóżek wieprzowych</t>
+  </si>
+  <si>
+    <t>Gęś, tuszka</t>
+  </si>
+  <si>
+    <t>Gołąbki z mięsem i ryżem w sosie pomidorowym</t>
+  </si>
+  <si>
+    <t>Grejpfrut</t>
+  </si>
+  <si>
+    <t>Groch, suche nasiona</t>
+  </si>
+  <si>
+    <t>Groszek zielony</t>
+  </si>
+  <si>
+    <t>Groszek zielony konserwowy</t>
+  </si>
+  <si>
+    <t>Groszek zielony mrożony</t>
+  </si>
+  <si>
+    <t>Groszek zielony z masłem</t>
+  </si>
+  <si>
+    <t>Gruszka</t>
+  </si>
+  <si>
+    <t>Gruszki w sosie waniliowym</t>
+  </si>
+  <si>
+    <t>Gulasz wołowy</t>
+  </si>
+  <si>
+    <t>Halibut biały świeży</t>
+  </si>
+  <si>
+    <t>Herbata bez cukru</t>
+  </si>
+  <si>
+    <t>Herbatniki</t>
+  </si>
+  <si>
+    <t>Herbatniki Corso</t>
+  </si>
+  <si>
+    <t>Herbatniki kakaowe</t>
+  </si>
+  <si>
+    <t>Herbatniki kokosowe</t>
+  </si>
+  <si>
+    <t>Herbatniki sezamowe</t>
+  </si>
+  <si>
+    <t>Herbatniki w czekoladzie</t>
+  </si>
+  <si>
+    <t>Herbatniki z cukrem</t>
+  </si>
+  <si>
+    <t>Herbatniki z nadzieniem czekoladowym</t>
+  </si>
+  <si>
+    <t>Herbatniki z nadzieniem owocowym</t>
+  </si>
+  <si>
+    <t>Indyk, mięso z piersi bez skóry</t>
+  </si>
+  <si>
+    <t>Indyk, mięso z podudzia ze skórą</t>
+  </si>
+  <si>
+    <t>Indyk, mięso z udźca ze skórą</t>
+  </si>
+  <si>
+    <t>Indyk, skrzydło</t>
+  </si>
+  <si>
+    <t>Jabłka pieczone</t>
+  </si>
+  <si>
+    <t>Jabłka suszone</t>
+  </si>
+  <si>
+    <t>Jabłka w kruchym cieście</t>
+  </si>
+  <si>
+    <t>Jabłko</t>
+  </si>
+  <si>
+    <t>Jagody, dżem niskosłodzony</t>
+  </si>
+  <si>
+    <t>Jagodzianki</t>
+  </si>
+  <si>
+    <t>Jaja gotowane</t>
+  </si>
+  <si>
+    <t>Jaja kurze całe</t>
+  </si>
+  <si>
+    <t>Jaja sadzone</t>
+  </si>
+  <si>
+    <t>Jajecznica</t>
+  </si>
+  <si>
+    <t>Jarmuż</t>
+  </si>
+  <si>
+    <t>Jarzyny mrożone</t>
+  </si>
+  <si>
+    <t>Jogurt bananowy 1,5 %</t>
+  </si>
+  <si>
+    <t>Jogurt jagodowy 1,5 %</t>
+  </si>
+  <si>
+    <t>Jogurt morelowy 1,5 %</t>
+  </si>
+  <si>
+    <t>Jogurt naturalny 2 %</t>
+  </si>
+  <si>
+    <t>Jogurt truskawkowy 1,5 %</t>
+  </si>
+  <si>
+    <t>Jogurt wiśniowy 1,5 %</t>
+  </si>
+  <si>
+    <t>Kabanosy</t>
+  </si>
+  <si>
+    <t>Kabanosy z kurczaka</t>
+  </si>
+  <si>
+    <t>Kaczka, tuszka</t>
+  </si>
+  <si>
+    <t>Kakao w proszku 16 %</t>
+  </si>
+  <si>
+    <t>Kalafior</t>
+  </si>
+  <si>
+    <t>Kalafior mrożony</t>
+  </si>
+  <si>
+    <t>Kalafior z wody</t>
+  </si>
+  <si>
+    <t>Kalarepa</t>
+  </si>
+  <si>
+    <t>Kapusta biała</t>
+  </si>
+  <si>
+    <t>Kapusta biała zasmażana</t>
+  </si>
+  <si>
+    <t>Kapusta czerwona</t>
+  </si>
+  <si>
+    <t>Kapusta kwaszona</t>
+  </si>
+  <si>
+    <t>Kapusta pekińska</t>
+  </si>
+  <si>
+    <t>Kapusta włoska</t>
+  </si>
+  <si>
+    <t>Kapuśniak z kapusty kwaszonej</t>
+  </si>
+  <si>
+    <t>Kapuśniak z kapusty słodkiej</t>
+  </si>
+  <si>
+    <t>Karmelki nadziewane</t>
+  </si>
+  <si>
+    <t>Karmelki twarde</t>
+  </si>
+  <si>
+    <t>Karp świeży</t>
+  </si>
+  <si>
+    <t>Karp w galarecie z warzywami</t>
+  </si>
+  <si>
+    <t>Karp z wody</t>
+  </si>
+  <si>
+    <t>Kasza gryczana</t>
+  </si>
+  <si>
+    <t>Kasza gryczana na sypko</t>
+  </si>
+  <si>
+    <t>Kasza jaglana</t>
+  </si>
+  <si>
+    <t>Kasza jęczmienna na mleku</t>
+  </si>
+  <si>
+    <t>Kasza jęczmienna perłowa</t>
+  </si>
+  <si>
+    <t>Kasza jęczmienna pęczak</t>
+  </si>
+  <si>
+    <t>Kasza manna</t>
+  </si>
+  <si>
+    <t>Kasza manna na mleku</t>
+  </si>
+  <si>
+    <t>Kasza manna</t>
+  </si>
+  <si>
+    <t>Kasza perłowa na sypko</t>
+  </si>
+  <si>
+    <t>Kaszanka z kurczaka</t>
+  </si>
+  <si>
+    <t>Kawa bez cukru</t>
+  </si>
+  <si>
+    <t>Kefir 2 %</t>
+  </si>
+  <si>
+    <t>Keks bakaliowy</t>
+  </si>
+  <si>
+    <t>Ketchup</t>
+  </si>
+  <si>
+    <t>Kiełbasa jałowcowa z kurczaka</t>
+  </si>
+  <si>
+    <t>Kiełbasa krakowska sucha</t>
+  </si>
+  <si>
+    <t>Kiełbasa mazurska z indyka</t>
+  </si>
+  <si>
+    <t>Kiełbasa mortadela</t>
+  </si>
+  <si>
+    <t>Kiełbasa myśliwska sucha</t>
+  </si>
+  <si>
+    <t>Kiełbasa parówkowa</t>
+  </si>
+  <si>
+    <t>Kiełbasa podlaska z kurczaka</t>
+  </si>
+  <si>
+    <t>Kiełbasa podsuszana z kurczaka</t>
+  </si>
+  <si>
+    <t>Kiełbasa podwawelska</t>
+  </si>
+  <si>
+    <t>Kiełbasa szynkowa z indyka</t>
+  </si>
+  <si>
+    <t>Kiełbasa szynkowa z kurczaka</t>
+  </si>
+  <si>
+    <t>Kiełbasa śląska</t>
+  </si>
+  <si>
+    <t>Kiełbasa toruńska</t>
+  </si>
+  <si>
+    <t>Kiełbasa zwyczajna</t>
+  </si>
+  <si>
+    <t>Kiełbasa żywiecka</t>
+  </si>
+  <si>
+    <t>Kisiel porzeczkowy</t>
+  </si>
+  <si>
+    <t>Kisiel waniliowy</t>
+  </si>
+  <si>
+    <t>Kiszka kaszana jęczmienna</t>
+  </si>
+  <si>
+    <t>Kiszka krwista</t>
+  </si>
+  <si>
+    <t>Kiszka pasztetowa</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Kiwi, dżem niskosłodzony</t>
+  </si>
+  <si>
+    <t>Klopsiki cielęce mielone</t>
+  </si>
+  <si>
+    <t>Klopsiki mielone z mięsa mieszanego</t>
+  </si>
+  <si>
+    <t>Kluski kładzione</t>
+  </si>
+  <si>
+    <t>Kluski lane</t>
+  </si>
+  <si>
+    <t>Kluski lane na mleku</t>
+  </si>
+  <si>
+    <t>Kluski śląskie</t>
+  </si>
+  <si>
+    <t>Knedle ze śliwkami</t>
+  </si>
+  <si>
+    <t>Kompot z jabłek</t>
+  </si>
+  <si>
+    <t>Kompot z wiśni</t>
+  </si>
+  <si>
+    <t>Koncentrat pomidorowy 30 %</t>
+  </si>
+  <si>
+    <t>Koper</t>
+  </si>
+  <si>
+    <t>Kopytka</t>
+  </si>
+  <si>
+    <t>Kotlet cielęcy panierowany</t>
+  </si>
+  <si>
+    <t>Kotlet mielony</t>
+  </si>
+  <si>
+    <t>Kotlet schabowy panierowany</t>
+  </si>
+  <si>
+    <t>Kotlet z kurczaka smażony panierowany</t>
+  </si>
+  <si>
+    <t>Kotlet z kurczaka smażony saute</t>
+  </si>
+  <si>
+    <t>Kotlet z kury mielony</t>
+  </si>
+  <si>
+    <t>Kotlety z jaj</t>
+  </si>
+  <si>
+    <t>Kotlety ziemniaczane</t>
+  </si>
+  <si>
+    <t>Krem z zielonego groszku</t>
+  </si>
+  <si>
+    <t>Królik, tuszka</t>
+  </si>
+  <si>
+    <t>Krupnik z kaszy gryczanej</t>
+  </si>
+  <si>
+    <t>Krupnik z kaszy jęczmiennej</t>
+  </si>
+  <si>
+    <t>Krupnik z ryżu</t>
+  </si>
+  <si>
+    <t>Kukurydza</t>
+  </si>
+  <si>
+    <t>Kukurydza konserwowa</t>
+  </si>
+  <si>
+    <t>Kulebiak</t>
+  </si>
+  <si>
+    <t>Kura w galarecie</t>
+  </si>
+  <si>
+    <t>Kura, tuszka</t>
+  </si>
+  <si>
+    <t>Kurczak faszerowany pieczony</t>
+  </si>
+  <si>
+    <t>Kurczak gotowany w jarzynach</t>
+  </si>
+  <si>
+    <t>Kurczak pieczony</t>
+  </si>
+  <si>
+    <t>Kurczak, mięso z piersi bez skóry</t>
+  </si>
+  <si>
+    <t>Kurczak, mięso z uda ze skórą</t>
+  </si>
+  <si>
+    <t>Kurczak, skrzydło</t>
+  </si>
+  <si>
+    <t>Kurczak, tuszka</t>
+  </si>
+  <si>
+    <t>Kurczak, wątroba</t>
+  </si>
+  <si>
+    <t>Kurczak, żołądek</t>
+  </si>
+  <si>
+    <t>Lody mleczno-owocowe</t>
+  </si>
+  <si>
+    <t>Lody śmietankowe</t>
+  </si>
+  <si>
+    <t>Łosoś smażony saute</t>
+  </si>
+  <si>
+    <t>Łosoś świeży</t>
+  </si>
+  <si>
+    <t>Łosoś wędzony</t>
+  </si>
+  <si>
+    <t>Łosoś z rusztu</t>
+  </si>
+  <si>
+    <t>Majonez</t>
+  </si>
+  <si>
+    <t>Mak niebieski</t>
+  </si>
+  <si>
+    <t>Makaron bezjajeczny</t>
+  </si>
+  <si>
+    <t>Makaron czterojajeczny</t>
+  </si>
+  <si>
+    <t>Makaron dwujajeczny</t>
+  </si>
+  <si>
+    <t>Makaron na mleku</t>
+  </si>
+  <si>
+    <t>Makrela świeża</t>
+  </si>
+  <si>
+    <t>Makrela wędzona</t>
+  </si>
+  <si>
+    <t>Makrela, filety z czerwoną fasolą</t>
+  </si>
+  <si>
+    <t>Makrela, filety z warzywami</t>
+  </si>
+  <si>
+    <t>Makrela, sałatka pikantna</t>
+  </si>
+  <si>
+    <t>Maliny</t>
+  </si>
+  <si>
+    <t>Mandarynki</t>
+  </si>
+  <si>
+    <t>Marchew</t>
+  </si>
+  <si>
+    <t>Marchew mrożona</t>
+  </si>
+  <si>
+    <t>Marchew z groszkiem</t>
+  </si>
+  <si>
+    <t>Marchew zasmażana</t>
+  </si>
+  <si>
+    <t>Margaryna Bona</t>
+  </si>
+  <si>
+    <t>Margaryna Flora</t>
+  </si>
+  <si>
+    <t>Margaryna Kama</t>
+  </si>
+  <si>
+    <t>Margaryna mleczna</t>
+  </si>
+  <si>
+    <t>Margaryna Palma</t>
+  </si>
+  <si>
+    <t>Margaryna Rama</t>
+  </si>
+  <si>
+    <t>Margaryna Słoneczna</t>
+  </si>
+  <si>
+    <t>Margaryna Tina</t>
+  </si>
+  <si>
+    <t>Margaryna zwykła</t>
+  </si>
+  <si>
+    <t>Markizy</t>
+  </si>
+  <si>
+    <t>Masło ekstra</t>
+  </si>
+  <si>
+    <t>Masło roślinne zwykłe</t>
+  </si>
+  <si>
+    <t>Maślanka 0,5 %</t>
+  </si>
+  <si>
+    <t>Mąka pszenna</t>
+  </si>
+  <si>
+    <t>Medaliony z indyka</t>
+  </si>
+  <si>
+    <t>Melon</t>
+  </si>
+  <si>
+    <t>Mielonka</t>
+  </si>
+  <si>
+    <t>Migdały</t>
+  </si>
+  <si>
+    <t>Mintaj świeży</t>
+  </si>
+  <si>
+    <t>Miód pszczeli</t>
+  </si>
+  <si>
+    <t>Mizeria ze śmietaną</t>
+  </si>
+  <si>
+    <t>Mleko kozie</t>
+  </si>
+  <si>
+    <t>Mleko owcze</t>
+  </si>
+  <si>
+    <t>Mleko spożywcze 0,5 %</t>
+  </si>
+  <si>
+    <t>Mleko spożywcze 1,5 %</t>
+  </si>
+  <si>
+    <t>Mleko spożywcze 2 %</t>
+  </si>
+  <si>
+    <t>Mleko spożywcze 3,2 %</t>
+  </si>
+  <si>
+    <t>Mleko spożywcze 3,5 %</t>
+  </si>
+  <si>
+    <t>Mleko w proszku odtłuszczone</t>
+  </si>
+  <si>
+    <t>Mleko w proszku pełne</t>
+  </si>
+  <si>
+    <t>Mleko zagęszczone niesłodzone</t>
+  </si>
+  <si>
+    <t>Mleko zagęszczone słodzone</t>
+  </si>
+  <si>
+    <t>Morela</t>
+  </si>
+  <si>
+    <t>Morele suszone</t>
+  </si>
+  <si>
+    <t>Morele, dżem niskosłodzony</t>
+  </si>
+  <si>
+    <t>Morszczuk świeży</t>
+  </si>
+  <si>
+    <t>Mus jabłkowy</t>
+  </si>
+  <si>
+    <t>Musli z owocami suszonymi</t>
+  </si>
+  <si>
+    <t>Musli z rodzynkami i orzechami</t>
+  </si>
+  <si>
+    <t>Musztarda</t>
+  </si>
+  <si>
+    <t>Naleśniki z kapustą</t>
+  </si>
+  <si>
+    <t>Naleśniki z serem</t>
+  </si>
+  <si>
+    <t>Napój mleczny jogurtowy</t>
+  </si>
+  <si>
+    <t>Napój mleczny kakaowy</t>
+  </si>
+  <si>
+    <t>Napój owocowy gazowany</t>
+  </si>
+  <si>
+    <t>Nektarynka</t>
+  </si>
+  <si>
+    <t>Nerki wieprzowe</t>
+  </si>
+  <si>
+    <t>Nogi wieprzowe</t>
+  </si>
+  <si>
+    <t>Ocet winny</t>
+  </si>
+  <si>
+    <t>Ogórek</t>
+  </si>
+  <si>
+    <t>Ogórek kiszony</t>
+  </si>
+  <si>
+    <t>Olej kukurydziany</t>
+  </si>
+  <si>
+    <t>Olej lniany</t>
+  </si>
+  <si>
+    <t>Olej rzepakowy</t>
+  </si>
+  <si>
+    <t>Olej słonecznikowy</t>
+  </si>
+  <si>
+    <t>Olej sojowy</t>
+  </si>
+  <si>
+    <t>Oliwa z oliwek</t>
+  </si>
+  <si>
+    <t>Oliwki</t>
+  </si>
+  <si>
+    <t>Orzechy arachidowe</t>
+  </si>
+  <si>
+    <t>Orzechy laskowe</t>
+  </si>
+  <si>
+    <t>Orzechy nerkowca</t>
+  </si>
+  <si>
+    <t>Orzechy pistacjowe</t>
+  </si>
+  <si>
+    <t>Orzechy włoskie</t>
+  </si>
+  <si>
+    <t>Orzeszki ziemne</t>
+  </si>
+  <si>
+    <t>Ostrygi</t>
+  </si>
+  <si>
+    <t>Otręby pszenne</t>
+  </si>
+  <si>
+    <t>Ozory cielęce</t>
+  </si>
+  <si>
+    <t>Ozory wieprzowe</t>
+  </si>
+  <si>
+    <t>Paluszki</t>
+  </si>
+  <si>
+    <t>Papaja</t>
+  </si>
+  <si>
+    <t>Papryka czerwona</t>
+  </si>
+  <si>
+    <t>Papryka konserwowa</t>
+  </si>
+  <si>
+    <t>Paprykarz Szczeciński</t>
+  </si>
+  <si>
+    <t>Parówki popularne</t>
+  </si>
+  <si>
+    <t>Parówki z kurczaka</t>
+  </si>
+  <si>
+    <t>Pasternak</t>
+  </si>
+  <si>
+    <t>Pasztet popularny</t>
+  </si>
+  <si>
+    <t>Pasztet z drobiu</t>
+  </si>
+  <si>
+    <t>Pączki</t>
+  </si>
+  <si>
+    <t>Pepsi, Cola, napój</t>
+  </si>
+  <si>
+    <t>Pepsi, Cola light, napój</t>
+  </si>
+  <si>
+    <t>Pestki dyni</t>
+  </si>
+  <si>
+    <t>Pędy bambusa</t>
+  </si>
+  <si>
+    <t>Pędy bambusa, konserwa, odsączone</t>
+  </si>
+  <si>
+    <t>Pieczarka suszona</t>
+  </si>
+  <si>
+    <t>Pieczarka świeża</t>
+  </si>
+  <si>
+    <t>Pieczywo chrupkie pszenne Wasa</t>
+  </si>
+  <si>
+    <t>Pierogi leniwe mrożone</t>
+  </si>
+  <si>
+    <t>Pierogi ruskie mrożone</t>
+  </si>
+  <si>
+    <t>Pierogi z kapustą i grzybami mrożone</t>
+  </si>
+  <si>
+    <t>Pierogi z mięsem mrożone</t>
+  </si>
+  <si>
+    <t>Pierogi z serem mrożone</t>
+  </si>
+  <si>
+    <t>Pierogi z truskawkami mrożone</t>
+  </si>
+  <si>
+    <t>Piernik czekoladowy</t>
+  </si>
+  <si>
+    <t>Piersi bez skóry indycze</t>
+  </si>
+  <si>
+    <t>Piersi bez skóry z kurczaka</t>
+  </si>
+  <si>
+    <t>Piersi ze skórą z kurczaka</t>
+  </si>
+  <si>
+    <t>Pietruszka korzeń</t>
+  </si>
+  <si>
+    <t>Pietruszka liście</t>
+  </si>
+  <si>
+    <t>Pikling</t>
+  </si>
+  <si>
+    <t>Piwo bezalkoholowe</t>
+  </si>
+  <si>
+    <t>Piwo ciemne pełne</t>
+  </si>
+  <si>
+    <t>Piwo jasne mocne</t>
+  </si>
+  <si>
+    <t>Piwo jasne pełne</t>
+  </si>
+  <si>
+    <t>Pizza z pieczarkami i cebulą</t>
+  </si>
+  <si>
+    <t>Pizza z szynką</t>
+  </si>
+  <si>
+    <t>Planta, tłuszcz roślinny</t>
+  </si>
+  <si>
+    <t>Płatki jęczmienne</t>
+  </si>
+  <si>
+    <t>Płatki kukurydziane</t>
+  </si>
+  <si>
+    <t>Płatki kukurydziane Nestle Corn Flakes</t>
+  </si>
+  <si>
+    <t>Płatki owsiane</t>
+  </si>
+  <si>
+    <t>Płatki pszenne</t>
+  </si>
+  <si>
+    <t>Płatki żytnie</t>
+  </si>
+  <si>
+    <t>Polędwica wołowa</t>
+  </si>
+  <si>
+    <t>Pomidor</t>
+  </si>
+  <si>
+    <t>Por</t>
+  </si>
+  <si>
+    <t>Pomarańcza</t>
+  </si>
+  <si>
+    <t>Popcorn bez tłuszczu</t>
+  </si>
+  <si>
+    <t>Popcorn z tłuszczem</t>
+  </si>
+  <si>
+    <t>Porzeczki białe</t>
+  </si>
+  <si>
+    <t>Porzeczki czarne</t>
+  </si>
+  <si>
+    <t>Porzeczki czerwone</t>
+  </si>
+  <si>
+    <t>Powidła śliwkowe</t>
+  </si>
+  <si>
+    <t>Poziomki</t>
+  </si>
+  <si>
+    <t>Precelki</t>
+  </si>
+  <si>
+    <t>Prince Polo, wafel</t>
+  </si>
+  <si>
+    <t>Princessa, wafel</t>
+  </si>
+  <si>
+    <t>Przyprawa do zup Maggi</t>
+  </si>
+  <si>
+    <t>Pstrąg świeży</t>
+  </si>
+  <si>
+    <t>Ptyś z bitą śmietaną, ciastko</t>
+  </si>
+  <si>
+    <t>Pyzy z mięsem mrożone</t>
+  </si>
+  <si>
+    <t>Pyzy ziemniaczane mrożone</t>
+  </si>
+  <si>
+    <t>Rabarabar</t>
+  </si>
+  <si>
+    <t>Raffaello, czekoladki</t>
+  </si>
+  <si>
+    <t>Rama Classic, margaryna</t>
+  </si>
+  <si>
+    <t>Red Bull, napój</t>
+  </si>
+  <si>
+    <t>Rodzynki</t>
+  </si>
+  <si>
+    <t>Rostbef wołowy</t>
+  </si>
+  <si>
+    <t>Rozbratel wołowy</t>
+  </si>
+  <si>
+    <t>Ryż biały</t>
+  </si>
+  <si>
+    <t>Ryż brązowy</t>
+  </si>
+  <si>
+    <t>Ryż dziki amerykański</t>
+  </si>
+  <si>
+    <t>Ryż preparowany</t>
+  </si>
+  <si>
+    <t>Rzeżucha</t>
+  </si>
+  <si>
+    <t>Rzodkiewka</t>
+  </si>
+  <si>
+    <t>Salceson czarny</t>
+  </si>
+  <si>
+    <t>Salceson włoski</t>
+  </si>
+  <si>
+    <t>Sałata</t>
+  </si>
+  <si>
+    <t>Sandacz świeży</t>
+  </si>
+  <si>
+    <t>Sardynki w oleju, konserwa</t>
+  </si>
+  <si>
+    <t>Sardynki w sosie pomidorowym, konserwa</t>
+  </si>
+  <si>
+    <t>Sarnina</t>
+  </si>
+  <si>
+    <t>Schab surowy wieprzowy</t>
+  </si>
+  <si>
+    <t>Schab wędzony</t>
+  </si>
+  <si>
+    <t>Seler korzeń</t>
+  </si>
+  <si>
+    <t>Ser Feta</t>
+  </si>
+  <si>
+    <t>Ser pleśniowy</t>
+  </si>
+  <si>
+    <t>Ser Brie</t>
+  </si>
+  <si>
+    <t>Ser Camembert</t>
+  </si>
+  <si>
+    <t>Ser  Cheddar</t>
+  </si>
+  <si>
+    <t>Ser Ementaler</t>
+  </si>
+  <si>
+    <t>Ser Gouda</t>
+  </si>
+  <si>
+    <t>Ser Mozarella</t>
+  </si>
+  <si>
+    <t>Ser Parmezan</t>
+  </si>
+  <si>
+    <t>Ser topiony</t>
+  </si>
+  <si>
+    <t>Ser twarogowy chudy</t>
+  </si>
+  <si>
+    <t>Ser twarogowy półtłusty</t>
+  </si>
+  <si>
+    <t>Ser twarogowy tłusty</t>
+  </si>
+  <si>
+    <t>Serca wieprzowe</t>
+  </si>
+  <si>
+    <t>Serdelki drobiowe</t>
+  </si>
+  <si>
+    <t>Serek Fromage naturalny</t>
+  </si>
+  <si>
+    <t>Serek homogenizowany truskawkowy</t>
+  </si>
+  <si>
+    <t>Serek homogenizowany waniliowy</t>
+  </si>
+  <si>
+    <t>Serek twarogowy ziarnisty</t>
+  </si>
+  <si>
+    <t>Sernik</t>
+  </si>
+  <si>
+    <t>Sernik z rodzynkami, ciasto</t>
+  </si>
+  <si>
+    <t>Serwatka płynna</t>
+  </si>
+  <si>
+    <t>Sezamki</t>
+  </si>
+  <si>
+    <t>Skrobia kukurydziana</t>
+  </si>
+  <si>
+    <t>Skrzydło bez skóry indycze</t>
+  </si>
+  <si>
+    <t>Słonecznik ziarno</t>
+  </si>
+  <si>
+    <t>Słonina</t>
+  </si>
+  <si>
+    <t>Smalec</t>
+  </si>
+  <si>
+    <t>Snickers, baton</t>
+  </si>
+  <si>
+    <t>Soczewica, suche ziarno</t>
+  </si>
+  <si>
+    <t>Soja, suche ziarno</t>
+  </si>
+  <si>
+    <t>Sola świeża</t>
+  </si>
+  <si>
+    <t>Sok ananasowy</t>
+  </si>
+  <si>
+    <t>Sok grejfrutowy</t>
+  </si>
+  <si>
+    <t>Sok jabłkowy</t>
+  </si>
+  <si>
+    <t>Sok marchwiowy</t>
+  </si>
+  <si>
+    <t>Sok pomarańczowy</t>
+  </si>
+  <si>
+    <t>Sok pomidorowy</t>
+  </si>
+  <si>
+    <t>Sok z czarnej porzeczki</t>
+  </si>
+  <si>
+    <t>Sprite, napój</t>
+  </si>
+  <si>
+    <t>Syrop truskawkowy</t>
+  </si>
+  <si>
+    <t>Szampan półsłodki</t>
+  </si>
+  <si>
+    <t>Szampan półwytrawny</t>
+  </si>
+  <si>
+    <t>Szampan słodki</t>
+  </si>
+  <si>
+    <t>Szczaw</t>
+  </si>
+  <si>
+    <t>Szczupak świeży</t>
+  </si>
+  <si>
+    <t>Szczypiorek</t>
+  </si>
+  <si>
+    <t>Szparagi</t>
+  </si>
+  <si>
+    <t>Szpinak</t>
+  </si>
+  <si>
+    <t>Szponder wołowy</t>
+  </si>
+  <si>
+    <t>Szprot wędzony</t>
+  </si>
+  <si>
+    <t>Szynka surowa wieprzowa</t>
+  </si>
+  <si>
+    <t>Szynka wędzona gotowana</t>
+  </si>
+  <si>
+    <t>Śmietana 12% tłuszczu</t>
+  </si>
+  <si>
+    <t>Śmietana 18% tłuszczu</t>
+  </si>
+  <si>
+    <t>Śmietanka do kawy 9% tłuszczu</t>
+  </si>
+  <si>
+    <t>Śmietanka kremowa 30% tłuszczu</t>
+  </si>
+  <si>
+    <t>Śledź solony</t>
+  </si>
+  <si>
+    <t>Śledź świeży</t>
+  </si>
+  <si>
+    <t>Śledź w oleju, konserwa</t>
+  </si>
+  <si>
+    <t>Śledź w pomidorach, konserwa</t>
+  </si>
+  <si>
+    <t>Śliwki</t>
+  </si>
+  <si>
+    <t>Śliwki suszone</t>
+  </si>
+  <si>
+    <t>Truskawki</t>
+  </si>
+  <si>
+    <t>Truskawki w galaretce</t>
+  </si>
+  <si>
+    <t>Truskawki z bitą śmietaną</t>
+  </si>
+  <si>
+    <t>Truskawki, dżem niskosłodzony</t>
+  </si>
+  <si>
+    <t>Truskawki, dżem wysokosłodzony</t>
+  </si>
+  <si>
+    <t>Tuńczyk w oleju</t>
+  </si>
+  <si>
+    <t>Tuńczyk w wodzie</t>
+  </si>
+  <si>
+    <t>Wafle nadziewane</t>
+  </si>
+  <si>
+    <t>Wafle w czekoladzie</t>
+  </si>
+  <si>
+    <t>Wątroba cielęca</t>
+  </si>
+  <si>
+    <t>Wątroba wieprzowa</t>
+  </si>
+  <si>
+    <t>Wątroba wołowa</t>
+  </si>
+  <si>
+    <t>Wątróbka wieprzowa saute</t>
+  </si>
+  <si>
+    <t>Wędzonka wołowa gotowana</t>
+  </si>
+  <si>
+    <t>Węgorz wędzony</t>
+  </si>
+  <si>
+    <t>Wieprzowina duszona</t>
+  </si>
+  <si>
+    <t>Wieprzowina gotowana</t>
+  </si>
+  <si>
+    <t>Winogrona</t>
+  </si>
+  <si>
+    <t>Wiórki kokosowe</t>
+  </si>
+  <si>
+    <t>Wiśnie</t>
+  </si>
+  <si>
+    <t>Wiśnie, dżem niskosłodzony</t>
+  </si>
+  <si>
+    <t>Wiśnie, dżem wysokosłodzony</t>
+  </si>
+  <si>
+    <t>Włoszczyzna mrożona</t>
+  </si>
+  <si>
+    <t>Wołowina, pieczeń</t>
+  </si>
+  <si>
+    <t>Wołowina, polędwica</t>
+  </si>
+  <si>
+    <t>Wołowina, rostbef</t>
+  </si>
+  <si>
+    <t>Wołowina, rozbratel</t>
+  </si>
+  <si>
+    <t>Wołowina, szponder</t>
+  </si>
+  <si>
+    <t>Ziemniaki późne</t>
+  </si>
+  <si>
+    <t>Ziemniaki puree</t>
+  </si>
+  <si>
+    <t>Ziemniaki wczesne</t>
+  </si>
+  <si>
+    <t>Ziemniaki z tłuszczem</t>
+  </si>
+  <si>
+    <t>Zupa cebulowa</t>
+  </si>
+  <si>
+    <t>Zupa cytrynowa z ryżem</t>
+  </si>
+  <si>
+    <t>Zupa fasolowa</t>
+  </si>
+  <si>
+    <t>Zupa grochowa</t>
+  </si>
+  <si>
+    <t>Zupa grzybowa zabielana</t>
+  </si>
+  <si>
+    <t>Zupa jarzynowa</t>
+  </si>
+  <si>
+    <t>Zupa jesienna mrożona</t>
+  </si>
+  <si>
+    <t>Zupa kalafiorowa</t>
+  </si>
+  <si>
+    <t>Zupa kalafiorowa mrożona</t>
+  </si>
+  <si>
+    <t>Zupa neapolitańska</t>
+  </si>
+  <si>
+    <t>Zupa ogórkowa</t>
+  </si>
+  <si>
+    <t>Zupa owocowa z jabłek</t>
+  </si>
+  <si>
+    <t>Zupa pomidorowa</t>
+  </si>
+  <si>
+    <t>Zupa pomidorowa z makaronem</t>
+  </si>
+  <si>
+    <t>Zupa pomidorowa z ryżem</t>
+  </si>
+  <si>
+    <t>Zupa pomidorowa zabielana</t>
+  </si>
+  <si>
+    <t>Zupa selerowa</t>
+  </si>
+  <si>
+    <t>Zupa selerowa z grzankami</t>
+  </si>
+  <si>
+    <t>Zupa szczawiowa</t>
+  </si>
+  <si>
+    <t>Zupa szpinakowa z ziemniakami</t>
+  </si>
+  <si>
+    <t>Zupa włoska mrożona</t>
+  </si>
+  <si>
+    <t>Zupa z fasoli szparagowej</t>
+  </si>
+  <si>
+    <t>Zupa z porów z makaronem</t>
+  </si>
+  <si>
+    <t>Zupa z zielonego groszku</t>
+  </si>
+  <si>
+    <t>Zupa ziemniaczana</t>
+  </si>
+  <si>
+    <t>Zupa zimowa mrożona</t>
+  </si>
+  <si>
+    <t>Żeberka wieprzowe duszone</t>
+  </si>
+  <si>
+    <t>Żółtko jaja kurzego</t>
+  </si>
+  <si>
+    <t>Żurek</t>
+  </si>
+  <si>
+    <t>Zupa selerowa z grzankami</t>
+  </si>
+  <si>
+    <t>Zupa szczawiowa</t>
+  </si>
+  <si>
+    <t>Zupa szpinakowa z ziemniakami</t>
+  </si>
+  <si>
+    <t>Zupa włoska mrożona</t>
+  </si>
+  <si>
+    <t>Zupa z fasoli szparagowej</t>
+  </si>
+  <si>
+    <t>Zupa z porów z makaronem</t>
+  </si>
+  <si>
+    <t>Zupa z zielonego groszku</t>
+  </si>
+  <si>
+    <t>Zupa ziemniaczana</t>
+  </si>
+  <si>
+    <t>Zupa zimowa mrożona</t>
+  </si>
+  <si>
+    <t>Żeberka wieprzowe duszone</t>
+  </si>
+  <si>
+    <t>Żółtko jaja kurzego</t>
+  </si>
+  <si>
+    <t>Żurek</t>
+  </si>
+  <si>
+    <t>Kalorie_100g</t>
+  </si>
+  <si>
+    <t>Weglowodany_100g</t>
+  </si>
+  <si>
+    <t>Bialko_100g</t>
+  </si>
+  <si>
+    <t>Tluszcz_100g</t>
   </si>
 </sst>
 </file>
@@ -2315,42 +4124,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16FD9F8-BC44-4DF3-B6DF-626DC45BB9D7}">
-  <dimension ref="A1:E601"/>
+  <dimension ref="A1:E602"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A584" workbookViewId="0">
+      <selection activeCell="D605" sqref="D605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1</v>
+        <v>1196</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>594</v>
+        <v>1197</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>595</v>
+        <v>1198</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>596</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>211</v>
+        <v>596</v>
       </c>
       <c r="B2" s="8">
         <v>41</v>
@@ -2367,7 +4176,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>212</v>
+        <v>597</v>
       </c>
       <c r="B3" s="3">
         <v>54</v>
@@ -2384,7 +4193,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>213</v>
+        <v>598</v>
       </c>
       <c r="B4" s="3">
         <v>84</v>
@@ -2401,7 +4210,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>214</v>
+        <v>599</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -2418,7 +4227,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>215</v>
+        <v>600</v>
       </c>
       <c r="B6" s="3">
         <v>36</v>
@@ -2435,7 +4244,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>216</v>
+        <v>601</v>
       </c>
       <c r="B7" s="3">
         <v>169</v>
@@ -2452,7 +4261,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>217</v>
+        <v>602</v>
       </c>
       <c r="B8" s="3">
         <v>340</v>
@@ -2469,7 +4278,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>218</v>
+        <v>603</v>
       </c>
       <c r="B9" s="3">
         <v>282</v>
@@ -2486,7 +4295,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>219</v>
+        <v>604</v>
       </c>
       <c r="B10" s="3">
         <v>21</v>
@@ -2503,7 +4312,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>220</v>
+        <v>605</v>
       </c>
       <c r="B11" s="3">
         <v>244</v>
@@ -2520,7 +4329,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>221</v>
+        <v>606</v>
       </c>
       <c r="B12" s="3">
         <v>95</v>
@@ -2537,7 +4346,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>222</v>
+        <v>607</v>
       </c>
       <c r="B13" s="3">
         <v>284</v>
@@ -2554,7 +4363,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>223</v>
+        <v>608</v>
       </c>
       <c r="B14" s="3">
         <v>232</v>
@@ -2571,7 +4380,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>224</v>
+        <v>609</v>
       </c>
       <c r="B15" s="3">
         <v>32</v>
@@ -2588,7 +4397,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>225</v>
+        <v>610</v>
       </c>
       <c r="B16" s="3">
         <v>54</v>
@@ -2605,7 +4414,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>226</v>
+        <v>611</v>
       </c>
       <c r="B17" s="3">
         <v>28</v>
@@ -2622,7 +4431,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>227</v>
+        <v>612</v>
       </c>
       <c r="B18" s="3">
         <v>29</v>
@@ -2639,7 +4448,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>228</v>
+        <v>613</v>
       </c>
       <c r="B19" s="3">
         <v>448</v>
@@ -2656,7 +4465,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>229</v>
+        <v>614</v>
       </c>
       <c r="B20" s="3">
         <v>451</v>
@@ -2673,7 +4482,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>230</v>
+        <v>615</v>
       </c>
       <c r="B21" s="3">
         <v>448</v>
@@ -2690,7 +4499,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>231</v>
+        <v>616</v>
       </c>
       <c r="B22" s="3">
         <v>497</v>
@@ -2707,7 +4516,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>232</v>
+        <v>617</v>
       </c>
       <c r="B23" s="3">
         <v>143</v>
@@ -2724,7 +4533,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>233</v>
+        <v>618</v>
       </c>
       <c r="B24" s="3">
         <v>483</v>
@@ -2741,7 +4550,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>234</v>
+        <v>619</v>
       </c>
       <c r="B25" s="3">
         <v>144</v>
@@ -2758,7 +4567,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>235</v>
+        <v>620</v>
       </c>
       <c r="B26" s="3">
         <v>258</v>
@@ -2775,7 +4584,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>236</v>
+        <v>621</v>
       </c>
       <c r="B27" s="3">
         <v>49</v>
@@ -2792,7 +4601,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>237</v>
+        <v>622</v>
       </c>
       <c r="B28" s="3">
         <v>119</v>
@@ -2809,7 +4618,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>238</v>
+        <v>623</v>
       </c>
       <c r="B29" s="3">
         <v>195</v>
@@ -2826,7 +4635,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>239</v>
+        <v>624</v>
       </c>
       <c r="B30" s="3">
         <v>198</v>
@@ -2843,7 +4652,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>240</v>
+        <v>625</v>
       </c>
       <c r="B31" s="3">
         <v>102</v>
@@ -2860,7 +4669,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>241</v>
+        <v>626</v>
       </c>
       <c r="B32" s="3">
         <v>116</v>
@@ -2877,7 +4686,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>242</v>
+        <v>627</v>
       </c>
       <c r="B33" s="3">
         <v>257</v>
@@ -2894,7 +4703,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>243</v>
+        <v>628</v>
       </c>
       <c r="B34" s="3">
         <v>17</v>
@@ -2911,7 +4720,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>244</v>
+        <v>629</v>
       </c>
       <c r="B35" s="3">
         <v>220</v>
@@ -2928,7 +4737,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>245</v>
+        <v>630</v>
       </c>
       <c r="B36" s="3">
         <v>66</v>
@@ -2945,7 +4754,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>246</v>
+        <v>631</v>
       </c>
       <c r="B37" s="3">
         <v>27</v>
@@ -2962,7 +4771,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>247</v>
+        <v>632</v>
       </c>
       <c r="B38" s="3">
         <v>24</v>
@@ -2979,7 +4788,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>248</v>
+        <v>633</v>
       </c>
       <c r="B39" s="3">
         <v>37</v>
@@ -2996,7 +4805,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>249</v>
+        <v>634</v>
       </c>
       <c r="B40" s="3">
         <v>36</v>
@@ -3013,7 +4822,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>250</v>
+        <v>635</v>
       </c>
       <c r="B41" s="3">
         <v>110</v>
@@ -3030,7 +4839,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>251</v>
+        <v>636</v>
       </c>
       <c r="B42" s="3">
         <v>252</v>
@@ -3047,7 +4856,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>252</v>
+        <v>637</v>
       </c>
       <c r="B43" s="3">
         <v>46</v>
@@ -3064,7 +4873,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>253</v>
+        <v>638</v>
       </c>
       <c r="B44" s="3">
         <v>73</v>
@@ -3079,9 +4888,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>254</v>
+        <v>639</v>
       </c>
       <c r="B45" s="3">
         <v>155</v>
@@ -3098,7 +4907,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>255</v>
+        <v>640</v>
       </c>
       <c r="B46" s="3">
         <v>303</v>
@@ -3115,7 +4924,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>256</v>
+        <v>641</v>
       </c>
       <c r="B47" s="3">
         <v>171</v>
@@ -3132,7 +4941,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>257</v>
+        <v>642</v>
       </c>
       <c r="B48" s="3">
         <v>347</v>
@@ -3149,7 +4958,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>258</v>
+        <v>643</v>
       </c>
       <c r="B49" s="3">
         <v>258</v>
@@ -3166,7 +4975,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>259</v>
+        <v>644</v>
       </c>
       <c r="B50" s="3">
         <v>296</v>
@@ -3183,7 +4992,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>260</v>
+        <v>645</v>
       </c>
       <c r="B51" s="3">
         <v>326</v>
@@ -3200,7 +5009,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>261</v>
+        <v>646</v>
       </c>
       <c r="B52" s="3">
         <v>272</v>
@@ -3217,7 +5026,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>262</v>
+        <v>647</v>
       </c>
       <c r="B53" s="3">
         <v>293</v>
@@ -3234,7 +5043,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>263</v>
+        <v>648</v>
       </c>
       <c r="B54" s="3">
         <v>38</v>
@@ -3251,7 +5060,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>264</v>
+        <v>649</v>
       </c>
       <c r="B55" s="3">
         <v>34</v>
@@ -3268,7 +5077,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>265</v>
+        <v>650</v>
       </c>
       <c r="B56" s="3">
         <v>69</v>
@@ -3285,7 +5094,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>266</v>
+        <v>651</v>
       </c>
       <c r="B57" s="3">
         <v>83</v>
@@ -3302,7 +5111,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>267</v>
+        <v>652</v>
       </c>
       <c r="B58" s="3">
         <v>68</v>
@@ -3319,7 +5128,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>268</v>
+        <v>653</v>
       </c>
       <c r="B59" s="3">
         <v>30</v>
@@ -3336,7 +5145,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>269</v>
+        <v>654</v>
       </c>
       <c r="B60" s="3">
         <v>333</v>
@@ -3353,7 +5162,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>270</v>
+        <v>655</v>
       </c>
       <c r="B61" s="3">
         <v>537</v>
@@ -3370,7 +5179,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>271</v>
+        <v>656</v>
       </c>
       <c r="B62" s="3">
         <v>549</v>
@@ -3387,7 +5196,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>272</v>
+        <v>657</v>
       </c>
       <c r="B63" s="3">
         <v>552</v>
@@ -3404,7 +5213,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>273</v>
+        <v>658</v>
       </c>
       <c r="B64" s="3">
         <v>246</v>
@@ -3421,7 +5230,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>274</v>
+        <v>659</v>
       </c>
       <c r="B65" s="3">
         <v>353</v>
@@ -3438,7 +5247,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>275</v>
+        <v>660</v>
       </c>
       <c r="B66" s="3">
         <v>226</v>
@@ -3455,7 +5264,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>276</v>
+        <v>661</v>
       </c>
       <c r="B67" s="3">
         <v>248</v>
@@ -3472,7 +5281,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>277</v>
+        <v>662</v>
       </c>
       <c r="B68" s="3">
         <v>246</v>
@@ -3489,7 +5298,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>278</v>
+        <v>663</v>
       </c>
       <c r="B69" s="3">
         <v>231</v>
@@ -3506,7 +5315,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>279</v>
+        <v>664</v>
       </c>
       <c r="B70" s="3">
         <v>244</v>
@@ -3523,7 +5332,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>280</v>
+        <v>665</v>
       </c>
       <c r="B71" s="3">
         <v>249</v>
@@ -3540,7 +5349,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>281</v>
+        <v>666</v>
       </c>
       <c r="B72" s="3">
         <v>219</v>
@@ -3557,7 +5366,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>282</v>
+        <v>667</v>
       </c>
       <c r="B73" s="3">
         <v>239</v>
@@ -3574,7 +5383,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>283</v>
+        <v>668</v>
       </c>
       <c r="B74" s="3">
         <v>245</v>
@@ -3591,7 +5400,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>284</v>
+        <v>669</v>
       </c>
       <c r="B75" s="3">
         <v>241</v>
@@ -3608,7 +5417,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>285</v>
+        <v>670</v>
       </c>
       <c r="B76" s="3">
         <v>253</v>
@@ -3625,7 +5434,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>286</v>
+        <v>671</v>
       </c>
       <c r="B77" s="3">
         <v>237</v>
@@ -3642,7 +5451,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>287</v>
+        <v>672</v>
       </c>
       <c r="B78" s="3">
         <v>223</v>
@@ -3659,7 +5468,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>288</v>
+        <v>673</v>
       </c>
       <c r="B79" s="3">
         <v>234</v>
@@ -3674,9 +5483,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>289</v>
+        <v>674</v>
       </c>
       <c r="B80" s="3">
         <v>244</v>
@@ -3693,7 +5502,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>290</v>
+        <v>675</v>
       </c>
       <c r="B81" s="3">
         <v>225</v>
@@ -3710,7 +5519,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>291</v>
+        <v>676</v>
       </c>
       <c r="B82" s="3">
         <v>352</v>
@@ -3727,7 +5536,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>292</v>
+        <v>677</v>
       </c>
       <c r="B83" s="3">
         <v>67</v>
@@ -3744,7 +5553,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>293</v>
+        <v>678</v>
       </c>
       <c r="B84" s="3">
         <v>432</v>
@@ -3761,7 +5570,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>294</v>
+        <v>679</v>
       </c>
       <c r="B85" s="3">
         <v>449</v>
@@ -3778,7 +5587,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>295</v>
+        <v>680</v>
       </c>
       <c r="B86" s="3">
         <v>348</v>
@@ -3795,7 +5604,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>296</v>
+        <v>681</v>
       </c>
       <c r="B87" s="3">
         <v>276</v>
@@ -3812,7 +5621,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>297</v>
+        <v>682</v>
       </c>
       <c r="B88" s="3">
         <v>290</v>
@@ -3829,7 +5638,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>298</v>
+        <v>683</v>
       </c>
       <c r="B89" s="3">
         <v>429</v>
@@ -3846,7 +5655,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>299</v>
+        <v>684</v>
       </c>
       <c r="B90" s="3">
         <v>174</v>
@@ -3861,9 +5670,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>300</v>
+        <v>685</v>
       </c>
       <c r="B91" s="3">
         <v>187</v>
@@ -3880,7 +5689,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
-        <v>301</v>
+        <v>686</v>
       </c>
       <c r="B92" s="3">
         <v>103</v>
@@ -3897,7 +5706,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
-        <v>302</v>
+        <v>687</v>
       </c>
       <c r="B93" s="3">
         <v>106</v>
@@ -3914,7 +5723,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
-        <v>303</v>
+        <v>688</v>
       </c>
       <c r="B94" s="3">
         <v>105</v>
@@ -3931,7 +5740,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>304</v>
+        <v>689</v>
       </c>
       <c r="B95" s="3">
         <v>108</v>
@@ -3948,7 +5757,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
-        <v>305</v>
+        <v>690</v>
       </c>
       <c r="B96" s="3">
         <v>42</v>
@@ -3965,7 +5774,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
-        <v>306</v>
+        <v>691</v>
       </c>
       <c r="B97" s="3">
         <v>405</v>
@@ -3982,7 +5791,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
-        <v>307</v>
+        <v>692</v>
       </c>
       <c r="B98" s="3">
         <v>421</v>
@@ -3999,7 +5808,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
-        <v>308</v>
+        <v>693</v>
       </c>
       <c r="B99" s="3">
         <v>421</v>
@@ -4016,7 +5825,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
-        <v>309</v>
+        <v>694</v>
       </c>
       <c r="B100" s="3">
         <v>15</v>
@@ -4033,7 +5842,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
-        <v>310</v>
+        <v>695</v>
       </c>
       <c r="B101" s="3">
         <v>21</v>
@@ -4050,7 +5859,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
-        <v>311</v>
+        <v>696</v>
       </c>
       <c r="B102" s="3">
         <v>36</v>
@@ -4067,7 +5876,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
-        <v>312</v>
+        <v>697</v>
       </c>
       <c r="B103" s="3">
         <v>45</v>
@@ -4082,9 +5891,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
-        <v>313</v>
+        <v>698</v>
       </c>
       <c r="B104" s="3">
         <v>152</v>
@@ -4099,9 +5908,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
-        <v>314</v>
+        <v>699</v>
       </c>
       <c r="B105" s="3">
         <v>251</v>
@@ -4118,7 +5927,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
-        <v>315</v>
+        <v>700</v>
       </c>
       <c r="B106" s="3">
         <v>530</v>
@@ -4135,7 +5944,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
-        <v>316</v>
+        <v>701</v>
       </c>
       <c r="B107" s="3">
         <v>531</v>
@@ -4152,7 +5961,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
-        <v>317</v>
+        <v>702</v>
       </c>
       <c r="B108" s="3">
         <v>554</v>
@@ -4169,7 +5978,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
-        <v>318</v>
+        <v>703</v>
       </c>
       <c r="B109" s="3">
         <v>526</v>
@@ -4186,7 +5995,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
-        <v>319</v>
+        <v>704</v>
       </c>
       <c r="B110" s="3">
         <v>549</v>
@@ -4201,9 +6010,9 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
-        <v>320</v>
+        <v>705</v>
       </c>
       <c r="B111" s="3">
         <v>539</v>
@@ -4220,7 +6029,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
-        <v>321</v>
+        <v>706</v>
       </c>
       <c r="B112" s="3">
         <v>450</v>
@@ -4237,7 +6046,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
-        <v>322</v>
+        <v>707</v>
       </c>
       <c r="B113" s="3">
         <v>61</v>
@@ -4254,7 +6063,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
-        <v>323</v>
+        <v>708</v>
       </c>
       <c r="B114" s="3">
         <v>146</v>
@@ -4271,7 +6080,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
-        <v>324</v>
+        <v>709</v>
       </c>
       <c r="B115" s="3">
         <v>41</v>
@@ -4288,7 +6097,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
-        <v>325</v>
+        <v>710</v>
       </c>
       <c r="B116" s="3">
         <v>277</v>
@@ -4305,7 +6114,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
-        <v>326</v>
+        <v>711</v>
       </c>
       <c r="B117" s="3">
         <v>327</v>
@@ -4322,7 +6131,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
-        <v>327</v>
+        <v>712</v>
       </c>
       <c r="B118" s="3">
         <v>134</v>
@@ -4339,7 +6148,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
-        <v>328</v>
+        <v>713</v>
       </c>
       <c r="B119" s="3">
         <v>133</v>
@@ -4354,9 +6163,9 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
-        <v>329</v>
+        <v>714</v>
       </c>
       <c r="B120" s="3">
         <v>156</v>
@@ -4371,9 +6180,9 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
-        <v>330</v>
+        <v>715</v>
       </c>
       <c r="B121" s="3">
         <v>170</v>
@@ -4390,7 +6199,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
-        <v>331</v>
+        <v>716</v>
       </c>
       <c r="B122" s="3">
         <v>78</v>
@@ -4407,7 +6216,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
-        <v>332</v>
+        <v>717</v>
       </c>
       <c r="B123" s="3">
         <v>70</v>
@@ -4424,7 +6233,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
-        <v>333</v>
+        <v>718</v>
       </c>
       <c r="B124" s="3">
         <v>117</v>
@@ -4441,7 +6250,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
-        <v>334</v>
+        <v>719</v>
       </c>
       <c r="B125" s="3">
         <v>94</v>
@@ -4458,7 +6267,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
-        <v>335</v>
+        <v>720</v>
       </c>
       <c r="B126" s="3">
         <v>172</v>
@@ -4475,7 +6284,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
-        <v>336</v>
+        <v>721</v>
       </c>
       <c r="B127" s="3">
         <v>152</v>
@@ -4490,9 +6299,9 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
-        <v>337</v>
+        <v>722</v>
       </c>
       <c r="B128" s="3">
         <v>273</v>
@@ -4509,7 +6318,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
-        <v>338</v>
+        <v>723</v>
       </c>
       <c r="B129" s="3">
         <v>260</v>
@@ -4526,7 +6335,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
-        <v>339</v>
+        <v>724</v>
       </c>
       <c r="B130" s="3">
         <v>112</v>
@@ -4543,7 +6352,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
-        <v>340</v>
+        <v>725</v>
       </c>
       <c r="B131" s="3">
         <v>187</v>
@@ -4560,7 +6369,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
-        <v>341</v>
+        <v>726</v>
       </c>
       <c r="B132" s="3">
         <v>28</v>
@@ -4577,7 +6386,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
-        <v>342</v>
+        <v>727</v>
       </c>
       <c r="B133" s="3">
         <v>44</v>
@@ -4594,7 +6403,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
-        <v>343</v>
+        <v>728</v>
       </c>
       <c r="B134" s="3">
         <v>556</v>
@@ -4611,7 +6420,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
-        <v>344</v>
+        <v>729</v>
       </c>
       <c r="B135" s="3">
         <v>317</v>
@@ -4628,7 +6437,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
-        <v>345</v>
+        <v>730</v>
       </c>
       <c r="B136" s="3">
         <v>288</v>
@@ -4645,7 +6454,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
-        <v>346</v>
+        <v>731</v>
       </c>
       <c r="B137" s="3">
         <v>16</v>
@@ -4662,7 +6471,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
-        <v>347</v>
+        <v>732</v>
       </c>
       <c r="B138" s="3">
         <v>27</v>
@@ -4679,7 +6488,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
-        <v>348</v>
+        <v>733</v>
       </c>
       <c r="B139" s="3">
         <v>61</v>
@@ -4696,7 +6505,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
-        <v>349</v>
+        <v>734</v>
       </c>
       <c r="B140" s="3">
         <v>141</v>
@@ -4713,7 +6522,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
-        <v>350</v>
+        <v>735</v>
       </c>
       <c r="B141" s="3">
         <v>97</v>
@@ -4730,7 +6539,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
-        <v>351</v>
+        <v>736</v>
       </c>
       <c r="B142" s="3">
         <v>24</v>
@@ -4747,7 +6556,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
-        <v>352</v>
+        <v>737</v>
       </c>
       <c r="B143" s="3">
         <v>290</v>
@@ -4764,7 +6573,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
-        <v>353</v>
+        <v>738</v>
       </c>
       <c r="B144" s="3">
         <v>84</v>
@@ -4781,7 +6590,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
-        <v>354</v>
+        <v>739</v>
       </c>
       <c r="B145" s="3">
         <v>83</v>
@@ -4798,7 +6607,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
-        <v>355</v>
+        <v>740</v>
       </c>
       <c r="B146" s="3">
         <v>202</v>
@@ -4815,7 +6624,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
-        <v>356</v>
+        <v>741</v>
       </c>
       <c r="B147" s="3">
         <v>339</v>
@@ -4832,7 +6641,7 @@
     </row>
     <row r="148" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>357</v>
+        <v>742</v>
       </c>
       <c r="B148" s="3">
         <v>108</v>
@@ -4849,7 +6658,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
-        <v>358</v>
+        <v>743</v>
       </c>
       <c r="B149" s="3">
         <v>36</v>
@@ -4866,7 +6675,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
-        <v>359</v>
+        <v>744</v>
       </c>
       <c r="B150" s="3">
         <v>293</v>
@@ -4883,7 +6692,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
-        <v>360</v>
+        <v>745</v>
       </c>
       <c r="B151" s="3">
         <v>75</v>
@@ -4900,7 +6709,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
-        <v>361</v>
+        <v>746</v>
       </c>
       <c r="B152" s="3">
         <v>63</v>
@@ -4917,7 +6726,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
-        <v>362</v>
+        <v>747</v>
       </c>
       <c r="B153" s="3">
         <v>72</v>
@@ -4934,7 +6743,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
-        <v>363</v>
+        <v>748</v>
       </c>
       <c r="B154" s="3">
         <v>100</v>
@@ -4951,7 +6760,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>364</v>
+        <v>749</v>
       </c>
       <c r="B155" s="3">
         <v>54</v>
@@ -4968,7 +6777,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
-        <v>365</v>
+        <v>750</v>
       </c>
       <c r="B156" s="3">
         <v>151</v>
@@ -4985,7 +6794,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
-        <v>366</v>
+        <v>751</v>
       </c>
       <c r="B157" s="3">
         <v>148</v>
@@ -5002,7 +6811,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
-        <v>367</v>
+        <v>752</v>
       </c>
       <c r="B158" s="3">
         <v>98</v>
@@ -5019,7 +6828,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
-        <v>368</v>
+        <v>753</v>
       </c>
       <c r="B159" s="3">
         <v>0</v>
@@ -5036,7 +6845,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
-        <v>369</v>
+        <v>754</v>
       </c>
       <c r="B160" s="3">
         <v>437</v>
@@ -5053,7 +6862,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
-        <v>370</v>
+        <v>755</v>
       </c>
       <c r="B161" s="3">
         <v>440</v>
@@ -5070,7 +6879,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
-        <v>371</v>
+        <v>756</v>
       </c>
       <c r="B162" s="3">
         <v>474</v>
@@ -5087,7 +6896,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
-        <v>372</v>
+        <v>757</v>
       </c>
       <c r="B163" s="3">
         <v>473</v>
@@ -5104,7 +6913,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
-        <v>373</v>
+        <v>758</v>
       </c>
       <c r="B164" s="3">
         <v>503</v>
@@ -5121,7 +6930,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
-        <v>374</v>
+        <v>759</v>
       </c>
       <c r="B165" s="3">
         <v>489</v>
@@ -5138,7 +6947,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
-        <v>375</v>
+        <v>760</v>
       </c>
       <c r="B166" s="3">
         <v>460</v>
@@ -5153,9 +6962,9 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
-        <v>376</v>
+        <v>761</v>
       </c>
       <c r="B167" s="3">
         <v>497</v>
@@ -5170,9 +6979,9 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
-        <v>377</v>
+        <v>762</v>
       </c>
       <c r="B168" s="3">
         <v>389</v>
@@ -5189,7 +6998,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
-        <v>5</v>
+        <v>763</v>
       </c>
       <c r="B169" s="3">
         <v>84</v>
@@ -5206,7 +7015,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
-        <v>6</v>
+        <v>764</v>
       </c>
       <c r="B170" s="3">
         <v>142</v>
@@ -5223,7 +7032,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
-        <v>7</v>
+        <v>765</v>
       </c>
       <c r="B171" s="3">
         <v>131</v>
@@ -5240,7 +7049,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
-        <v>8</v>
+        <v>766</v>
       </c>
       <c r="B172" s="3">
         <v>168</v>
@@ -5257,7 +7066,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
-        <v>9</v>
+        <v>767</v>
       </c>
       <c r="B173" s="3">
         <v>93</v>
@@ -5274,7 +7083,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
-        <v>10</v>
+        <v>768</v>
       </c>
       <c r="B174" s="3">
         <v>238</v>
@@ -5291,7 +7100,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
-        <v>11</v>
+        <v>769</v>
       </c>
       <c r="B175" s="3">
         <v>348</v>
@@ -5308,7 +7117,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>12</v>
+        <v>770</v>
       </c>
       <c r="B176" s="3">
         <v>46</v>
@@ -5325,7 +7134,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
-        <v>13</v>
+        <v>771</v>
       </c>
       <c r="B177" s="3">
         <v>153</v>
@@ -5342,7 +7151,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
-        <v>14</v>
+        <v>772</v>
       </c>
       <c r="B178" s="3">
         <v>314</v>
@@ -5359,7 +7168,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
-        <v>15</v>
+        <v>773</v>
       </c>
       <c r="B179" s="3">
         <v>109</v>
@@ -5376,7 +7185,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
-        <v>16</v>
+        <v>774</v>
       </c>
       <c r="B180" s="3">
         <v>139</v>
@@ -5393,7 +7202,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
-        <v>17</v>
+        <v>775</v>
       </c>
       <c r="B181" s="3">
         <v>168</v>
@@ -5410,7 +7219,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
-        <v>18</v>
+        <v>776</v>
       </c>
       <c r="B182" s="3">
         <v>119</v>
@@ -5427,7 +7236,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
-        <v>19</v>
+        <v>777</v>
       </c>
       <c r="B183" s="3">
         <v>29</v>
@@ -5444,7 +7253,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
-        <v>20</v>
+        <v>778</v>
       </c>
       <c r="B184" s="3">
         <v>30</v>
@@ -5461,7 +7270,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
-        <v>21</v>
+        <v>779</v>
       </c>
       <c r="B185" s="3">
         <v>70</v>
@@ -5478,7 +7287,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
-        <v>22</v>
+        <v>780</v>
       </c>
       <c r="B186" s="3">
         <v>62</v>
@@ -5495,7 +7304,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
-        <v>23</v>
+        <v>781</v>
       </c>
       <c r="B187" s="3">
         <v>63</v>
@@ -5512,7 +7321,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
-        <v>24</v>
+        <v>782</v>
       </c>
       <c r="B188" s="3">
         <v>60</v>
@@ -5529,7 +7338,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
-        <v>25</v>
+        <v>783</v>
       </c>
       <c r="B189" s="3">
         <v>60</v>
@@ -5546,7 +7355,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
-        <v>26</v>
+        <v>784</v>
       </c>
       <c r="B190" s="3">
         <v>61</v>
@@ -5563,7 +7372,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
-        <v>27</v>
+        <v>785</v>
       </c>
       <c r="B191" s="3">
         <v>326</v>
@@ -5580,7 +7389,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
-        <v>28</v>
+        <v>786</v>
       </c>
       <c r="B192" s="3">
         <v>247</v>
@@ -5597,7 +7406,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
-        <v>29</v>
+        <v>787</v>
       </c>
       <c r="B193" s="3">
         <v>308</v>
@@ -5614,7 +7423,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
-        <v>30</v>
+        <v>788</v>
       </c>
       <c r="B194" s="3">
         <v>448</v>
@@ -5631,7 +7440,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
-        <v>31</v>
+        <v>789</v>
       </c>
       <c r="B195" s="3">
         <v>22</v>
@@ -5648,7 +7457,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
-        <v>32</v>
+        <v>790</v>
       </c>
       <c r="B196" s="3">
         <v>20</v>
@@ -5665,7 +7474,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="14" t="s">
-        <v>33</v>
+        <v>791</v>
       </c>
       <c r="B197" s="3">
         <v>33</v>
@@ -5682,7 +7491,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="14" t="s">
-        <v>34</v>
+        <v>792</v>
       </c>
       <c r="B198" s="3">
         <v>29</v>
@@ -5699,7 +7508,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
-        <v>35</v>
+        <v>793</v>
       </c>
       <c r="B199" s="3">
         <v>29</v>
@@ -5716,7 +7525,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="14" t="s">
-        <v>36</v>
+        <v>794</v>
       </c>
       <c r="B200" s="3">
         <v>69</v>
@@ -5733,7 +7542,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
-        <v>37</v>
+        <v>795</v>
       </c>
       <c r="B201" s="3">
         <v>27</v>
@@ -5750,7 +7559,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="14" t="s">
-        <v>38</v>
+        <v>796</v>
       </c>
       <c r="B202" s="3">
         <v>12</v>
@@ -5767,7 +7576,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
-        <v>39</v>
+        <v>797</v>
       </c>
       <c r="B203" s="3">
         <v>12</v>
@@ -5784,7 +7593,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="14" t="s">
-        <v>40</v>
+        <v>798</v>
       </c>
       <c r="B204" s="3">
         <v>38</v>
@@ -5801,7 +7610,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
-        <v>41</v>
+        <v>799</v>
       </c>
       <c r="B205" s="3">
         <v>21</v>
@@ -5818,7 +7627,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
-        <v>42</v>
+        <v>800</v>
       </c>
       <c r="B206" s="3">
         <v>31</v>
@@ -5835,7 +7644,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
-        <v>43</v>
+        <v>801</v>
       </c>
       <c r="B207" s="3">
         <v>378</v>
@@ -5852,7 +7661,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
-        <v>44</v>
+        <v>802</v>
       </c>
       <c r="B208" s="3">
         <v>399</v>
@@ -5869,7 +7678,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
-        <v>45</v>
+        <v>803</v>
       </c>
       <c r="B209" s="3">
         <v>110</v>
@@ -5886,7 +7695,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
-        <v>46</v>
+        <v>804</v>
       </c>
       <c r="B210" s="3">
         <v>137</v>
@@ -5903,7 +7712,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
-        <v>47</v>
+        <v>805</v>
       </c>
       <c r="B211" s="3">
         <v>102</v>
@@ -5920,7 +7729,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
-        <v>48</v>
+        <v>806</v>
       </c>
       <c r="B212" s="3">
         <v>336</v>
@@ -5937,7 +7746,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="14" t="s">
-        <v>49</v>
+        <v>807</v>
       </c>
       <c r="B213" s="3">
         <v>132</v>
@@ -5954,7 +7763,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="14" t="s">
-        <v>50</v>
+        <v>808</v>
       </c>
       <c r="B214" s="3">
         <v>346</v>
@@ -5971,7 +7780,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
-        <v>51</v>
+        <v>809</v>
       </c>
       <c r="B215" s="3">
         <v>63</v>
@@ -5988,7 +7797,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="14" t="s">
-        <v>52</v>
+        <v>810</v>
       </c>
       <c r="B216" s="3">
         <v>327</v>
@@ -6005,7 +7814,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="14" t="s">
-        <v>53</v>
+        <v>811</v>
       </c>
       <c r="B217" s="3">
         <v>334</v>
@@ -6022,7 +7831,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="14" t="s">
-        <v>54</v>
+        <v>812</v>
       </c>
       <c r="B218" s="3">
         <v>348</v>
@@ -6039,7 +7848,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
-        <v>55</v>
+        <v>813</v>
       </c>
       <c r="B219" s="3">
         <v>67</v>
@@ -6056,7 +7865,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="14" t="s">
-        <v>593</v>
+        <v>814</v>
       </c>
       <c r="B220" s="3">
         <v>21</v>
@@ -6073,7 +7882,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="14" t="s">
-        <v>56</v>
+        <v>815</v>
       </c>
       <c r="B221" s="3">
         <v>115</v>
@@ -6090,7 +7899,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="14" t="s">
-        <v>57</v>
+        <v>816</v>
       </c>
       <c r="B222" s="3">
         <v>204</v>
@@ -6107,7 +7916,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="14" t="s">
-        <v>58</v>
+        <v>817</v>
       </c>
       <c r="B223" s="3">
         <v>2</v>
@@ -6124,7 +7933,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="14" t="s">
-        <v>59</v>
+        <v>818</v>
       </c>
       <c r="B224" s="3">
         <v>51</v>
@@ -6141,7 +7950,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="14" t="s">
-        <v>60</v>
+        <v>819</v>
       </c>
       <c r="B225" s="3">
         <v>384</v>
@@ -6158,7 +7967,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="14" t="s">
-        <v>61</v>
+        <v>820</v>
       </c>
       <c r="B226" s="3">
         <v>93</v>
@@ -6175,7 +7984,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="14" t="s">
-        <v>62</v>
+        <v>821</v>
       </c>
       <c r="B227" s="3">
         <v>236</v>
@@ -6192,7 +8001,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="14" t="s">
-        <v>63</v>
+        <v>822</v>
       </c>
       <c r="B228" s="3">
         <v>323</v>
@@ -6209,7 +8018,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="14" t="s">
-        <v>64</v>
+        <v>823</v>
       </c>
       <c r="B229" s="3">
         <v>129</v>
@@ -6226,7 +8035,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="14" t="s">
-        <v>65</v>
+        <v>824</v>
       </c>
       <c r="B230" s="3">
         <v>205</v>
@@ -6243,7 +8052,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="14" t="s">
-        <v>66</v>
+        <v>825</v>
       </c>
       <c r="B231" s="3">
         <v>291</v>
@@ -6260,7 +8069,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="14" t="s">
-        <v>67</v>
+        <v>826</v>
       </c>
       <c r="B232" s="3">
         <v>323</v>
@@ -6277,7 +8086,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="14" t="s">
-        <v>68</v>
+        <v>827</v>
       </c>
       <c r="B233" s="3">
         <v>232</v>
@@ -6294,7 +8103,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="14" t="s">
-        <v>69</v>
+        <v>828</v>
       </c>
       <c r="B234" s="3">
         <v>162</v>
@@ -6311,7 +8120,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
-        <v>70</v>
+        <v>829</v>
       </c>
       <c r="B235" s="3">
         <v>247</v>
@@ -6328,7 +8137,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="14" t="s">
-        <v>71</v>
+        <v>830</v>
       </c>
       <c r="B236" s="3">
         <v>88</v>
@@ -6345,7 +8154,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="14" t="s">
-        <v>72</v>
+        <v>831</v>
       </c>
       <c r="B237" s="3">
         <v>110</v>
@@ -6362,7 +8171,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="14" t="s">
-        <v>73</v>
+        <v>832</v>
       </c>
       <c r="B238" s="3">
         <v>210</v>
@@ -6379,7 +8188,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="14" t="s">
-        <v>74</v>
+        <v>833</v>
       </c>
       <c r="B239" s="3">
         <v>263</v>
@@ -6396,7 +8205,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="14" t="s">
-        <v>75</v>
+        <v>834</v>
       </c>
       <c r="B240" s="3">
         <v>209</v>
@@ -6413,7 +8222,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="14" t="s">
-        <v>76</v>
+        <v>835</v>
       </c>
       <c r="B241" s="3">
         <v>315</v>
@@ -6430,7 +8239,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="14" t="s">
-        <v>77</v>
+        <v>836</v>
       </c>
       <c r="B242" s="3">
         <v>88</v>
@@ -6447,7 +8256,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="14" t="s">
-        <v>78</v>
+        <v>837</v>
       </c>
       <c r="B243" s="3">
         <v>121</v>
@@ -6464,7 +8273,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="14" t="s">
-        <v>79</v>
+        <v>838</v>
       </c>
       <c r="B244" s="3">
         <v>194</v>
@@ -6481,7 +8290,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="14" t="s">
-        <v>80</v>
+        <v>839</v>
       </c>
       <c r="B245" s="3">
         <v>404</v>
@@ -6498,7 +8307,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="14" t="s">
-        <v>81</v>
+        <v>840</v>
       </c>
       <c r="B246" s="3">
         <v>384</v>
@@ -6515,7 +8324,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="14" t="s">
-        <v>82</v>
+        <v>841</v>
       </c>
       <c r="B247" s="3">
         <v>56</v>
@@ -6532,7 +8341,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="14" t="s">
-        <v>83</v>
+        <v>842</v>
       </c>
       <c r="B248" s="3">
         <v>154</v>
@@ -6549,7 +8358,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="14" t="s">
-        <v>84</v>
+        <v>843</v>
       </c>
       <c r="B249" s="3">
         <v>250</v>
@@ -6564,9 +8373,9 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="14" t="s">
-        <v>85</v>
+        <v>844</v>
       </c>
       <c r="B250" s="3">
         <v>272</v>
@@ -6583,7 +8392,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="14" t="s">
-        <v>86</v>
+        <v>845</v>
       </c>
       <c r="B251" s="3">
         <v>165</v>
@@ -6600,7 +8409,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="14" t="s">
-        <v>87</v>
+        <v>846</v>
       </c>
       <c r="B252" s="3">
         <v>93</v>
@@ -6617,7 +8426,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="14" t="s">
-        <v>88</v>
+        <v>847</v>
       </c>
       <c r="B253" s="3">
         <v>70</v>
@@ -6634,7 +8443,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="14" t="s">
-        <v>89</v>
+        <v>848</v>
       </c>
       <c r="B254" s="3">
         <v>169</v>
@@ -6651,7 +8460,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="14" t="s">
-        <v>90</v>
+        <v>849</v>
       </c>
       <c r="B255" s="3">
         <v>161</v>
@@ -6668,7 +8477,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="14" t="s">
-        <v>91</v>
+        <v>850</v>
       </c>
       <c r="B256" s="3">
         <v>51</v>
@@ -6685,7 +8494,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="14" t="s">
-        <v>92</v>
+        <v>851</v>
       </c>
       <c r="B257" s="3">
         <v>69</v>
@@ -6702,7 +8511,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="14" t="s">
-        <v>93</v>
+        <v>852</v>
       </c>
       <c r="B258" s="3">
         <v>92</v>
@@ -6719,7 +8528,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="14" t="s">
-        <v>94</v>
+        <v>853</v>
       </c>
       <c r="B259" s="3">
         <v>26</v>
@@ -6736,7 +8545,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="14" t="s">
-        <v>95</v>
+        <v>854</v>
       </c>
       <c r="B260" s="3">
         <v>143</v>
@@ -6753,7 +8562,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="14" t="s">
-        <v>96</v>
+        <v>855</v>
       </c>
       <c r="B261" s="3">
         <v>365</v>
@@ -6770,7 +8579,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="14" t="s">
-        <v>592</v>
+        <v>856</v>
       </c>
       <c r="B262" s="3">
         <v>284</v>
@@ -6787,7 +8596,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="14" t="s">
-        <v>97</v>
+        <v>857</v>
       </c>
       <c r="B263" s="3">
         <v>351</v>
@@ -6802,9 +8611,9 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="14" t="s">
-        <v>98</v>
+        <v>858</v>
       </c>
       <c r="B264" s="3">
         <v>248</v>
@@ -6821,7 +8630,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="14" t="s">
-        <v>99</v>
+        <v>859</v>
       </c>
       <c r="B265" s="3">
         <v>241</v>
@@ -6838,7 +8647,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="14" t="s">
-        <v>100</v>
+        <v>860</v>
       </c>
       <c r="B266" s="3">
         <v>382</v>
@@ -6855,7 +8664,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="14" t="s">
-        <v>101</v>
+        <v>861</v>
       </c>
       <c r="B267" s="3">
         <v>275</v>
@@ -6872,7 +8681,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="14" t="s">
-        <v>102</v>
+        <v>862</v>
       </c>
       <c r="B268" s="3">
         <v>241</v>
@@ -6889,7 +8698,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="14" t="s">
-        <v>103</v>
+        <v>863</v>
       </c>
       <c r="B269" s="3">
         <v>63</v>
@@ -6906,7 +8715,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="14" t="s">
-        <v>104</v>
+        <v>864</v>
       </c>
       <c r="B270" s="3">
         <v>156</v>
@@ -6923,7 +8732,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="14" t="s">
-        <v>105</v>
+        <v>865</v>
       </c>
       <c r="B271" s="3">
         <v>43</v>
@@ -6940,7 +8749,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="14" t="s">
-        <v>106</v>
+        <v>866</v>
       </c>
       <c r="B272" s="3">
         <v>40</v>
@@ -6957,7 +8766,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="14" t="s">
-        <v>107</v>
+        <v>867</v>
       </c>
       <c r="B273" s="3">
         <v>43</v>
@@ -6974,7 +8783,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="14" t="s">
-        <v>108</v>
+        <v>868</v>
       </c>
       <c r="B274" s="3">
         <v>110</v>
@@ -6991,7 +8800,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="14" t="s">
-        <v>109</v>
+        <v>869</v>
       </c>
       <c r="B275" s="3">
         <v>102</v>
@@ -7008,7 +8817,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="14" t="s">
-        <v>110</v>
+        <v>870</v>
       </c>
       <c r="B276" s="3">
         <v>222</v>
@@ -7025,7 +8834,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="14" t="s">
-        <v>111</v>
+        <v>871</v>
       </c>
       <c r="B277" s="3">
         <v>192</v>
@@ -7042,7 +8851,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="14" t="s">
-        <v>112</v>
+        <v>872</v>
       </c>
       <c r="B278" s="3">
         <v>202</v>
@@ -7059,7 +8868,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="14" t="s">
-        <v>113</v>
+        <v>873</v>
       </c>
       <c r="B279" s="3">
         <v>199</v>
@@ -7076,7 +8885,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="14" t="s">
-        <v>114</v>
+        <v>874</v>
       </c>
       <c r="B280" s="3">
         <v>99</v>
@@ -7093,7 +8902,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="14" t="s">
-        <v>115</v>
+        <v>875</v>
       </c>
       <c r="B281" s="3">
         <v>179</v>
@@ -7110,7 +8919,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="14" t="s">
-        <v>116</v>
+        <v>876</v>
       </c>
       <c r="B282" s="3">
         <v>99</v>
@@ -7127,7 +8936,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="14" t="s">
-        <v>117</v>
+        <v>877</v>
       </c>
       <c r="B283" s="3">
         <v>158</v>
@@ -7144,7 +8953,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="14" t="s">
-        <v>118</v>
+        <v>878</v>
       </c>
       <c r="B284" s="3">
         <v>186</v>
@@ -7161,7 +8970,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="14" t="s">
-        <v>119</v>
+        <v>879</v>
       </c>
       <c r="B285" s="3">
         <v>158</v>
@@ -7178,7 +8987,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="14" t="s">
-        <v>120</v>
+        <v>880</v>
       </c>
       <c r="B286" s="3">
         <v>136</v>
@@ -7195,7 +9004,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="14" t="s">
-        <v>121</v>
+        <v>881</v>
       </c>
       <c r="B287" s="3">
         <v>114</v>
@@ -7212,7 +9021,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="14" t="s">
-        <v>122</v>
+        <v>882</v>
       </c>
       <c r="B288" s="3">
         <v>116</v>
@@ -7229,7 +9038,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="14" t="s">
-        <v>123</v>
+        <v>883</v>
       </c>
       <c r="B289" s="3">
         <v>160</v>
@@ -7246,7 +9055,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="14" t="s">
-        <v>124</v>
+        <v>884</v>
       </c>
       <c r="B290" s="3">
         <v>379</v>
@@ -7263,7 +9072,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="14" t="s">
-        <v>125</v>
+        <v>885</v>
       </c>
       <c r="B291" s="3">
         <v>201</v>
@@ -7280,7 +9089,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="14" t="s">
-        <v>126</v>
+        <v>886</v>
       </c>
       <c r="B292" s="3">
         <v>162</v>
@@ -7297,7 +9106,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="14" t="s">
-        <v>127</v>
+        <v>887</v>
       </c>
       <c r="B293" s="3">
         <v>283</v>
@@ -7314,7 +9123,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="14" t="s">
-        <v>591</v>
+        <v>888</v>
       </c>
       <c r="B294" s="3">
         <v>714</v>
@@ -7331,7 +9140,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="14" t="s">
-        <v>128</v>
+        <v>889</v>
       </c>
       <c r="B295" s="3">
         <v>478</v>
@@ -7348,7 +9157,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="14" t="s">
-        <v>129</v>
+        <v>890</v>
       </c>
       <c r="B296" s="3">
         <v>363</v>
@@ -7365,7 +9174,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="14" t="s">
-        <v>130</v>
+        <v>891</v>
       </c>
       <c r="B297" s="3">
         <v>377</v>
@@ -7382,7 +9191,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="14" t="s">
-        <v>131</v>
+        <v>892</v>
       </c>
       <c r="B298" s="3">
         <v>373</v>
@@ -7399,7 +9208,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="14" t="s">
-        <v>132</v>
+        <v>893</v>
       </c>
       <c r="B299" s="3">
         <v>66</v>
@@ -7416,7 +9225,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="14" t="s">
-        <v>133</v>
+        <v>894</v>
       </c>
       <c r="B300" s="3">
         <v>181</v>
@@ -7433,7 +9242,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="14" t="s">
-        <v>134</v>
+        <v>895</v>
       </c>
       <c r="B301" s="3">
         <v>221</v>
@@ -7448,9 +9257,9 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="14" t="s">
-        <v>135</v>
+        <v>896</v>
       </c>
       <c r="B302" s="3">
         <v>128</v>
@@ -7467,7 +9276,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="14" t="s">
-        <v>136</v>
+        <v>897</v>
       </c>
       <c r="B303" s="3">
         <v>124</v>
@@ -7484,7 +9293,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="14" t="s">
-        <v>137</v>
+        <v>898</v>
       </c>
       <c r="B304" s="3">
         <v>181</v>
@@ -7501,7 +9310,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="14" t="s">
-        <v>138</v>
+        <v>899</v>
       </c>
       <c r="B305" s="3">
         <v>29</v>
@@ -7518,7 +9327,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="14" t="s">
-        <v>139</v>
+        <v>900</v>
       </c>
       <c r="B306" s="3">
         <v>42</v>
@@ -7535,7 +9344,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="14" t="s">
-        <v>140</v>
+        <v>901</v>
       </c>
       <c r="B307" s="3">
         <v>27</v>
@@ -7552,7 +9361,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="14" t="s">
-        <v>141</v>
+        <v>902</v>
       </c>
       <c r="B308" s="3">
         <v>24</v>
@@ -7569,7 +9378,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="14" t="s">
-        <v>142</v>
+        <v>903</v>
       </c>
       <c r="B309" s="3">
         <v>64</v>
@@ -7586,7 +9395,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="14" t="s">
-        <v>143</v>
+        <v>904</v>
       </c>
       <c r="B310" s="3">
         <v>69</v>
@@ -7603,7 +9412,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="14" t="s">
-        <v>144</v>
+        <v>905</v>
       </c>
       <c r="B311" s="3">
         <v>442</v>
@@ -7620,7 +9429,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="14" t="s">
-        <v>145</v>
+        <v>906</v>
       </c>
       <c r="B312" s="3">
         <v>531</v>
@@ -7637,7 +9446,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="14" t="s">
-        <v>146</v>
+        <v>907</v>
       </c>
       <c r="B313" s="3">
         <v>398</v>
@@ -7654,7 +9463,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="14" t="s">
-        <v>147</v>
+        <v>908</v>
       </c>
       <c r="B314" s="3">
         <v>710</v>
@@ -7671,7 +9480,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="14" t="s">
-        <v>148</v>
+        <v>909</v>
       </c>
       <c r="B315" s="3">
         <v>710</v>
@@ -7688,7 +9497,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="14" t="s">
-        <v>149</v>
+        <v>910</v>
       </c>
       <c r="B316" s="3">
         <v>621</v>
@@ -7705,7 +9514,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="14" t="s">
-        <v>150</v>
+        <v>911</v>
       </c>
       <c r="B317" s="3">
         <v>710</v>
@@ -7722,7 +9531,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="14" t="s">
-        <v>151</v>
+        <v>912</v>
       </c>
       <c r="B318" s="3">
         <v>442</v>
@@ -7739,7 +9548,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="14" t="s">
-        <v>152</v>
+        <v>913</v>
       </c>
       <c r="B319" s="3">
         <v>710</v>
@@ -7756,7 +9565,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="14" t="s">
-        <v>153</v>
+        <v>914</v>
       </c>
       <c r="B320" s="3">
         <v>483</v>
@@ -7773,7 +9582,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="14" t="s">
-        <v>154</v>
+        <v>915</v>
       </c>
       <c r="B321" s="3">
         <v>735</v>
@@ -7790,7 +9599,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="14" t="s">
-        <v>155</v>
+        <v>916</v>
       </c>
       <c r="B322" s="3">
         <v>666</v>
@@ -7807,7 +9616,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="14" t="s">
-        <v>156</v>
+        <v>917</v>
       </c>
       <c r="B323" s="3">
         <v>37</v>
@@ -7824,7 +9633,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="14" t="s">
-        <v>590</v>
+        <v>918</v>
       </c>
       <c r="B324" s="3">
         <v>342</v>
@@ -7841,7 +9650,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="14" t="s">
-        <v>157</v>
+        <v>919</v>
       </c>
       <c r="B325" s="3">
         <v>247</v>
@@ -7858,7 +9667,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="14" t="s">
-        <v>158</v>
+        <v>920</v>
       </c>
       <c r="B326" s="3">
         <v>36</v>
@@ -7875,7 +9684,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="14" t="s">
-        <v>159</v>
+        <v>921</v>
       </c>
       <c r="B327" s="3">
         <v>171</v>
@@ -7892,7 +9701,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="14" t="s">
-        <v>160</v>
+        <v>922</v>
       </c>
       <c r="B328" s="3">
         <v>572</v>
@@ -7909,7 +9718,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="14" t="s">
-        <v>161</v>
+        <v>923</v>
       </c>
       <c r="B329" s="3">
         <v>73</v>
@@ -7926,7 +9735,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="14" t="s">
-        <v>162</v>
+        <v>924</v>
       </c>
       <c r="B330" s="3">
         <v>324</v>
@@ -7943,7 +9752,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="14" t="s">
-        <v>163</v>
+        <v>925</v>
       </c>
       <c r="B331" s="3">
         <v>34</v>
@@ -7960,7 +9769,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="14" t="s">
-        <v>164</v>
+        <v>926</v>
       </c>
       <c r="B332" s="3">
         <v>68</v>
@@ -7977,7 +9786,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="14" t="s">
-        <v>165</v>
+        <v>927</v>
       </c>
       <c r="B333" s="3">
         <v>107</v>
@@ -7994,7 +9803,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="14" t="s">
-        <v>166</v>
+        <v>928</v>
       </c>
       <c r="B334" s="3">
         <v>39</v>
@@ -8011,7 +9820,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="14" t="s">
-        <v>167</v>
+        <v>929</v>
       </c>
       <c r="B335" s="3">
         <v>47</v>
@@ -8028,7 +9837,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="14" t="s">
-        <v>168</v>
+        <v>930</v>
       </c>
       <c r="B336" s="3">
         <v>51</v>
@@ -8045,7 +9854,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="14" t="s">
-        <v>169</v>
+        <v>931</v>
       </c>
       <c r="B337" s="3">
         <v>61</v>
@@ -8062,7 +9871,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="14" t="s">
-        <v>170</v>
+        <v>932</v>
       </c>
       <c r="B338" s="3">
         <v>64</v>
@@ -8079,7 +9888,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="14" t="s">
-        <v>171</v>
+        <v>933</v>
       </c>
       <c r="B339" s="3">
         <v>360</v>
@@ -8096,7 +9905,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="14" t="s">
-        <v>172</v>
+        <v>934</v>
       </c>
       <c r="B340" s="3">
         <v>479</v>
@@ -8113,7 +9922,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="14" t="s">
-        <v>173</v>
+        <v>935</v>
       </c>
       <c r="B341" s="3">
         <v>131</v>
@@ -8130,7 +9939,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="14" t="s">
-        <v>174</v>
+        <v>936</v>
       </c>
       <c r="B342" s="3">
         <v>326</v>
@@ -8147,7 +9956,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="14" t="s">
-        <v>175</v>
+        <v>937</v>
       </c>
       <c r="B343" s="3">
         <v>47</v>
@@ -8164,7 +9973,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="14" t="s">
-        <v>176</v>
+        <v>938</v>
       </c>
       <c r="B344" s="3">
         <v>284</v>
@@ -8181,7 +9990,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="14" t="s">
-        <v>177</v>
+        <v>939</v>
       </c>
       <c r="B345" s="3">
         <v>157</v>
@@ -8198,7 +10007,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="14" t="s">
-        <v>178</v>
+        <v>940</v>
       </c>
       <c r="B346" s="3">
         <v>89</v>
@@ -8215,7 +10024,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="14" t="s">
-        <v>179</v>
+        <v>941</v>
       </c>
       <c r="B347" s="3">
         <v>127</v>
@@ -8232,7 +10041,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="14" t="s">
-        <v>180</v>
+        <v>942</v>
       </c>
       <c r="B348" s="3">
         <v>325</v>
@@ -8249,7 +10058,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="14" t="s">
-        <v>181</v>
+        <v>943</v>
       </c>
       <c r="B349" s="3">
         <v>375</v>
@@ -8266,7 +10075,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="14" t="s">
-        <v>182</v>
+        <v>944</v>
       </c>
       <c r="B350" s="3">
         <v>162</v>
@@ -8283,7 +10092,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="14" t="s">
-        <v>183</v>
+        <v>945</v>
       </c>
       <c r="B351" s="3">
         <v>147</v>
@@ -8300,7 +10109,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="14" t="s">
-        <v>184</v>
+        <v>946</v>
       </c>
       <c r="B352" s="3">
         <v>242</v>
@@ -8317,7 +10126,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="14" t="s">
-        <v>185</v>
+        <v>947</v>
       </c>
       <c r="B353" s="3">
         <v>82</v>
@@ -8334,7 +10143,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="14" t="s">
-        <v>186</v>
+        <v>948</v>
       </c>
       <c r="B354" s="3">
         <v>81</v>
@@ -8351,7 +10160,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="14" t="s">
-        <v>187</v>
+        <v>949</v>
       </c>
       <c r="B355" s="3">
         <v>42</v>
@@ -8368,7 +10177,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="14" t="s">
-        <v>188</v>
+        <v>950</v>
       </c>
       <c r="B356" s="3">
         <v>48</v>
@@ -8385,7 +10194,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="14" t="s">
-        <v>189</v>
+        <v>951</v>
       </c>
       <c r="B357" s="3">
         <v>102</v>
@@ -8402,7 +10211,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="14" t="s">
-        <v>190</v>
+        <v>952</v>
       </c>
       <c r="B358" s="3">
         <v>274</v>
@@ -8419,7 +10228,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="14" t="s">
-        <v>191</v>
+        <v>953</v>
       </c>
       <c r="B359" s="3">
         <v>20</v>
@@ -8436,7 +10245,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="14" t="s">
-        <v>192</v>
+        <v>954</v>
       </c>
       <c r="B360" s="3">
         <v>15</v>
@@ -8453,7 +10262,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="14" t="s">
-        <v>193</v>
+        <v>955</v>
       </c>
       <c r="B361" s="3">
         <v>12</v>
@@ -8470,7 +10279,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="14" t="s">
-        <v>194</v>
+        <v>956</v>
       </c>
       <c r="B362" s="3">
         <v>900</v>
@@ -8487,7 +10296,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="14" t="s">
-        <v>195</v>
+        <v>957</v>
       </c>
       <c r="B363" s="3">
         <v>900</v>
@@ -8504,7 +10313,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="14" t="s">
-        <v>196</v>
+        <v>958</v>
       </c>
       <c r="B364" s="3">
         <v>900</v>
@@ -8521,7 +10330,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="14" t="s">
-        <v>197</v>
+        <v>959</v>
       </c>
       <c r="B365" s="3">
         <v>900</v>
@@ -8538,7 +10347,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="14" t="s">
-        <v>198</v>
+        <v>960</v>
       </c>
       <c r="B366" s="3">
         <v>900</v>
@@ -8555,7 +10364,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="14" t="s">
-        <v>199</v>
+        <v>961</v>
       </c>
       <c r="B367" s="3">
         <v>897</v>
@@ -8572,7 +10381,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="14" t="s">
-        <v>200</v>
+        <v>962</v>
       </c>
       <c r="B368" s="3">
         <v>147</v>
@@ -8589,7 +10398,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="14" t="s">
-        <v>201</v>
+        <v>963</v>
       </c>
       <c r="B369" s="3">
         <v>595</v>
@@ -8606,7 +10415,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="14" t="s">
-        <v>202</v>
+        <v>964</v>
       </c>
       <c r="B370" s="3">
         <v>695</v>
@@ -8623,7 +10432,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="14" t="s">
-        <v>203</v>
+        <v>965</v>
       </c>
       <c r="B371" s="3">
         <v>638</v>
@@ -8640,7 +10449,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
-        <v>204</v>
+        <v>966</v>
       </c>
       <c r="B372" s="3">
         <v>618</v>
@@ -8657,7 +10466,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="14" t="s">
-        <v>205</v>
+        <v>967</v>
       </c>
       <c r="B373" s="3">
         <v>679</v>
@@ -8674,7 +10483,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="14" t="s">
-        <v>206</v>
+        <v>968</v>
       </c>
       <c r="B374" s="3">
         <v>567</v>
@@ -8691,7 +10500,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="14" t="s">
-        <v>207</v>
+        <v>969</v>
       </c>
       <c r="B375" s="3">
         <v>85</v>
@@ -8708,7 +10517,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="14" t="s">
-        <v>208</v>
+        <v>970</v>
       </c>
       <c r="B376" s="3">
         <v>183</v>
@@ -8725,7 +10534,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="14" t="s">
-        <v>209</v>
+        <v>971</v>
       </c>
       <c r="B377" s="3">
         <v>106</v>
@@ -8742,7 +10551,7 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="14" t="s">
-        <v>210</v>
+        <v>972</v>
       </c>
       <c r="B378" s="3">
         <v>166</v>
@@ -8759,7 +10568,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="14" t="s">
-        <v>378</v>
+        <v>973</v>
       </c>
       <c r="B379" s="3">
         <v>384</v>
@@ -8776,7 +10585,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="14" t="s">
-        <v>379</v>
+        <v>974</v>
       </c>
       <c r="B380" s="3">
         <v>43</v>
@@ -8793,7 +10602,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="14" t="s">
-        <v>380</v>
+        <v>975</v>
       </c>
       <c r="B381" s="3">
         <v>35</v>
@@ -8810,7 +10619,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="14" t="s">
-        <v>381</v>
+        <v>976</v>
       </c>
       <c r="B382" s="3">
         <v>37</v>
@@ -8827,7 +10636,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="14" t="s">
-        <v>382</v>
+        <v>977</v>
       </c>
       <c r="B383" s="3">
         <v>181</v>
@@ -8844,7 +10653,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="14" t="s">
-        <v>383</v>
+        <v>978</v>
       </c>
       <c r="B384" s="3">
         <v>347</v>
@@ -8861,7 +10670,7 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="14" t="s">
-        <v>384</v>
+        <v>979</v>
       </c>
       <c r="B385" s="3">
         <v>262</v>
@@ -8878,7 +10687,7 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="14" t="s">
-        <v>385</v>
+        <v>980</v>
       </c>
       <c r="B386" s="3">
         <v>80</v>
@@ -8895,7 +10704,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="14" t="s">
-        <v>386</v>
+        <v>981</v>
       </c>
       <c r="B387" s="3">
         <v>405</v>
@@ -8912,7 +10721,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="14" t="s">
-        <v>387</v>
+        <v>982</v>
       </c>
       <c r="B388" s="3">
         <v>270</v>
@@ -8929,7 +10738,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="14" t="s">
-        <v>388</v>
+        <v>983</v>
       </c>
       <c r="B389" s="3">
         <v>376</v>
@@ -8946,7 +10755,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="14" t="s">
-        <v>389</v>
+        <v>984</v>
       </c>
       <c r="B390" s="3">
         <v>42</v>
@@ -8963,7 +10772,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="14" t="s">
-        <v>390</v>
+        <v>985</v>
       </c>
       <c r="B391" s="3">
         <v>0.24</v>
@@ -8980,7 +10789,7 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="14" t="s">
-        <v>391</v>
+        <v>986</v>
       </c>
       <c r="B392" s="3">
         <v>596</v>
@@ -8997,7 +10806,7 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="14" t="s">
-        <v>392</v>
+        <v>987</v>
       </c>
       <c r="B393" s="3">
         <v>34</v>
@@ -9012,9 +10821,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="14" t="s">
-        <v>393</v>
+        <v>988</v>
       </c>
       <c r="B394" s="3">
         <v>23</v>
@@ -9031,7 +10840,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="14" t="s">
-        <v>394</v>
+        <v>989</v>
       </c>
       <c r="B395" s="3">
         <v>331</v>
@@ -9048,7 +10857,7 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="14" t="s">
-        <v>395</v>
+        <v>990</v>
       </c>
       <c r="B396" s="3">
         <v>24</v>
@@ -9063,9 +10872,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="14" t="s">
-        <v>396</v>
+        <v>991</v>
       </c>
       <c r="B397" s="3">
         <v>360</v>
@@ -9082,7 +10891,7 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="14" t="s">
-        <v>397</v>
+        <v>992</v>
       </c>
       <c r="B398" s="3">
         <v>157</v>
@@ -9099,7 +10908,7 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="14" t="s">
-        <v>398</v>
+        <v>993</v>
       </c>
       <c r="B399" s="3">
         <v>215</v>
@@ -9114,9 +10923,9 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="14" t="s">
-        <v>399</v>
+        <v>994</v>
       </c>
       <c r="B400" s="3">
         <v>209</v>
@@ -9133,7 +10942,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="14" t="s">
-        <v>400</v>
+        <v>995</v>
       </c>
       <c r="B401" s="3">
         <v>255</v>
@@ -9150,7 +10959,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="14" t="s">
-        <v>401</v>
+        <v>996</v>
       </c>
       <c r="B402" s="3">
         <v>198</v>
@@ -9167,7 +10976,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="14" t="s">
-        <v>402</v>
+        <v>997</v>
       </c>
       <c r="B403" s="3">
         <v>194</v>
@@ -9184,7 +10993,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="14" t="s">
-        <v>403</v>
+        <v>998</v>
       </c>
       <c r="B404" s="3">
         <v>317</v>
@@ -9201,7 +11010,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="14" t="s">
-        <v>404</v>
+        <v>999</v>
       </c>
       <c r="B405" s="3">
         <v>109</v>
@@ -9218,7 +11027,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
-        <v>406</v>
+        <v>1000</v>
       </c>
       <c r="B406" s="3">
         <v>100</v>
@@ -9235,7 +11044,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="14" t="s">
-        <v>407</v>
+        <v>1001</v>
       </c>
       <c r="B407" s="3">
         <v>155</v>
@@ -9252,7 +11061,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="14" t="s">
-        <v>408</v>
+        <v>1002</v>
       </c>
       <c r="B408" s="3">
         <v>83</v>
@@ -9269,7 +11078,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="14" t="s">
-        <v>409</v>
+        <v>1003</v>
       </c>
       <c r="B409" s="3">
         <v>60</v>
@@ -9286,7 +11095,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="14" t="s">
-        <v>410</v>
+        <v>1004</v>
       </c>
       <c r="B410" s="3">
         <v>216</v>
@@ -9303,7 +11112,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="14" t="s">
-        <v>411</v>
+        <v>1005</v>
       </c>
       <c r="B411" s="3">
         <v>27</v>
@@ -9320,7 +11129,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="14" t="s">
-        <v>412</v>
+        <v>1006</v>
       </c>
       <c r="B412" s="3">
         <v>42</v>
@@ -9337,7 +11146,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="14" t="s">
-        <v>413</v>
+        <v>1007</v>
       </c>
       <c r="B413" s="3">
         <v>64</v>
@@ -9354,7 +11163,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="14" t="s">
-        <v>414</v>
+        <v>1008</v>
       </c>
       <c r="B414" s="3">
         <v>49</v>
@@ -9371,7 +11180,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="14" t="s">
-        <v>415</v>
+        <v>1009</v>
       </c>
       <c r="B415" s="3">
         <v>296</v>
@@ -9388,7 +11197,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="14" t="s">
-        <v>416</v>
+        <v>1010</v>
       </c>
       <c r="B416" s="3">
         <v>223</v>
@@ -9405,7 +11214,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="14" t="s">
-        <v>417</v>
+        <v>1011</v>
       </c>
       <c r="B417" s="3">
         <v>900</v>
@@ -9422,7 +11231,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="14" t="s">
-        <v>418</v>
+        <v>1012</v>
       </c>
       <c r="B418" s="3">
         <v>389</v>
@@ -9439,7 +11248,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="14" t="s">
-        <v>419</v>
+        <v>1013</v>
       </c>
       <c r="B419" s="3">
         <v>385</v>
@@ -9454,9 +11263,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="14" t="s">
-        <v>420</v>
+        <v>1014</v>
       </c>
       <c r="B420" s="3">
         <v>370</v>
@@ -9473,7 +11282,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="14" t="s">
-        <v>421</v>
+        <v>1015</v>
       </c>
       <c r="B421" s="3">
         <v>390</v>
@@ -9490,7 +11299,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="14" t="s">
-        <v>422</v>
+        <v>1016</v>
       </c>
       <c r="B422" s="3">
         <v>387</v>
@@ -9507,7 +11316,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="14" t="s">
-        <v>423</v>
+        <v>1017</v>
       </c>
       <c r="B423" s="3">
         <v>385</v>
@@ -9524,7 +11333,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="14" t="s">
-        <v>424</v>
+        <v>1018</v>
       </c>
       <c r="B424" s="3">
         <v>112</v>
@@ -9541,7 +11350,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="14" t="s">
-        <v>425</v>
+        <v>1019</v>
       </c>
       <c r="B425" s="3">
         <v>29</v>
@@ -9558,7 +11367,7 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="14" t="s">
-        <v>426</v>
+        <v>1020</v>
       </c>
       <c r="B426" s="3">
         <v>47</v>
@@ -9575,7 +11384,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="14" t="s">
-        <v>427</v>
+        <v>1021</v>
       </c>
       <c r="B427" s="3">
         <v>51</v>
@@ -9592,7 +11401,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="14" t="s">
-        <v>428</v>
+        <v>1022</v>
       </c>
       <c r="B428" s="3">
         <v>397</v>
@@ -9609,7 +11418,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="14" t="s">
-        <v>429</v>
+        <v>1023</v>
       </c>
       <c r="B429" s="3">
         <v>518</v>
@@ -9626,7 +11435,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="14" t="s">
-        <v>430</v>
+        <v>1024</v>
       </c>
       <c r="B430" s="3">
         <v>63</v>
@@ -9643,7 +11452,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="14" t="s">
-        <v>431</v>
+        <v>1025</v>
       </c>
       <c r="B431" s="3">
         <v>84</v>
@@ -9660,7 +11469,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="14" t="s">
-        <v>432</v>
+        <v>1026</v>
       </c>
       <c r="B432" s="3">
         <v>64</v>
@@ -9677,7 +11486,7 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="14" t="s">
-        <v>433</v>
+        <v>1027</v>
       </c>
       <c r="B433" s="3">
         <v>218</v>
@@ -9694,7 +11503,7 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="14" t="s">
-        <v>434</v>
+        <v>1028</v>
       </c>
       <c r="B434" s="3">
         <v>41</v>
@@ -9711,7 +11520,7 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="14" t="s">
-        <v>435</v>
+        <v>1029</v>
       </c>
       <c r="B435" s="3">
         <v>385</v>
@@ -9728,7 +11537,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="14" t="s">
-        <v>436</v>
+        <v>1030</v>
       </c>
       <c r="B436" s="3">
         <v>534</v>
@@ -9745,7 +11554,7 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="14" t="s">
-        <v>437</v>
+        <v>1031</v>
       </c>
       <c r="B437" s="3">
         <v>562</v>
@@ -9762,7 +11571,7 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="14" t="s">
-        <v>438</v>
+        <v>1032</v>
       </c>
       <c r="B438" s="3">
         <v>17</v>
@@ -9779,7 +11588,7 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="14" t="s">
-        <v>439</v>
+        <v>1033</v>
       </c>
       <c r="B439" s="3">
         <v>96</v>
@@ -9796,7 +11605,7 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="14" t="s">
-        <v>440</v>
+        <v>1034</v>
       </c>
       <c r="B440" s="3">
         <v>352</v>
@@ -9813,7 +11622,7 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="14" t="s">
-        <v>441</v>
+        <v>1035</v>
       </c>
       <c r="B441" s="3">
         <v>169</v>
@@ -9830,7 +11639,7 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="14" t="s">
-        <v>442</v>
+        <v>1036</v>
       </c>
       <c r="B442" s="3">
         <v>140</v>
@@ -9847,7 +11656,7 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="14" t="s">
-        <v>443</v>
+        <v>1037</v>
       </c>
       <c r="B443" s="3">
         <v>18</v>
@@ -9864,7 +11673,7 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="14" t="s">
-        <v>444</v>
+        <v>1038</v>
       </c>
       <c r="B444" s="3">
         <v>600</v>
@@ -9881,7 +11690,7 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="14" t="s">
-        <v>445</v>
+        <v>1039</v>
       </c>
       <c r="B445" s="3">
         <v>631</v>
@@ -9898,7 +11707,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="14" t="s">
-        <v>446</v>
+        <v>1040</v>
       </c>
       <c r="B446" s="3">
         <v>45</v>
@@ -9915,7 +11724,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="14" t="s">
-        <v>447</v>
+        <v>1041</v>
       </c>
       <c r="B447" s="3">
         <v>298</v>
@@ -9932,7 +11741,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="14" t="s">
-        <v>448</v>
+        <v>1042</v>
       </c>
       <c r="B448" s="3">
         <v>152</v>
@@ -9949,7 +11758,7 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="14" t="s">
-        <v>449</v>
+        <v>1043</v>
       </c>
       <c r="B449" s="3">
         <v>158</v>
@@ -9966,7 +11775,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="14" t="s">
-        <v>450</v>
+        <v>1044</v>
       </c>
       <c r="B450" s="3">
         <v>349</v>
@@ -9983,7 +11792,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="14" t="s">
-        <v>451</v>
+        <v>1045</v>
       </c>
       <c r="B451" s="3">
         <v>353</v>
@@ -10000,7 +11809,7 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="14" t="s">
-        <v>452</v>
+        <v>1046</v>
       </c>
       <c r="B452" s="3">
         <v>351</v>
@@ -10017,7 +11826,7 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="14" t="s">
-        <v>453</v>
+        <v>1047</v>
       </c>
       <c r="B453" s="3">
         <v>376</v>
@@ -10034,7 +11843,7 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="14" t="s">
-        <v>454</v>
+        <v>1048</v>
       </c>
       <c r="B454" s="3">
         <v>15</v>
@@ -10051,7 +11860,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="14" t="s">
-        <v>455</v>
+        <v>1049</v>
       </c>
       <c r="B455" s="3">
         <v>21</v>
@@ -10068,7 +11877,7 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="14" t="s">
-        <v>456</v>
+        <v>1050</v>
       </c>
       <c r="B456" s="3">
         <v>340</v>
@@ -10085,7 +11894,7 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="14" t="s">
-        <v>457</v>
+        <v>1051</v>
       </c>
       <c r="B457" s="3">
         <v>322</v>
@@ -10102,7 +11911,7 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="14" t="s">
-        <v>458</v>
+        <v>1052</v>
       </c>
       <c r="B458" s="3">
         <v>20</v>
@@ -10119,7 +11928,7 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="14" t="s">
-        <v>459</v>
+        <v>1053</v>
       </c>
       <c r="B459" s="3">
         <v>80</v>
@@ -10136,7 +11945,7 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="14" t="s">
-        <v>460</v>
+        <v>1054</v>
       </c>
       <c r="B460" s="3">
         <v>202</v>
@@ -10151,9 +11960,9 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="14" t="s">
-        <v>461</v>
+        <v>1055</v>
       </c>
       <c r="B461" s="3">
         <v>163</v>
@@ -10170,7 +11979,7 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="14" t="s">
-        <v>462</v>
+        <v>1056</v>
       </c>
       <c r="B462" s="3">
         <v>102</v>
@@ -10187,14 +11996,12 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="14" t="s">
-        <v>463</v>
+        <v>1057</v>
       </c>
       <c r="B463" s="3">
         <v>174</v>
       </c>
-      <c r="C463" s="3" t="s">
-        <v>405</v>
-      </c>
+      <c r="C463" s="3"/>
       <c r="D463" s="3">
         <v>21</v>
       </c>
@@ -10204,14 +12011,12 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="14" t="s">
-        <v>464</v>
+        <v>1058</v>
       </c>
       <c r="B464" s="3">
         <v>136</v>
       </c>
-      <c r="C464" s="3" t="s">
-        <v>405</v>
-      </c>
+      <c r="C464" s="3"/>
       <c r="D464" s="3">
         <v>25</v>
       </c>
@@ -10221,7 +12026,7 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="14" t="s">
-        <v>465</v>
+        <v>1059</v>
       </c>
       <c r="B465" s="3">
         <v>61</v>
@@ -10238,7 +12043,7 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
-        <v>466</v>
+        <v>1060</v>
       </c>
       <c r="B466" s="3">
         <v>216</v>
@@ -10255,7 +12060,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="14" t="s">
-        <v>581</v>
+        <v>1061</v>
       </c>
       <c r="B467" s="3">
         <v>354</v>
@@ -10272,7 +12077,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="14" t="s">
-        <v>580</v>
+        <v>1062</v>
       </c>
       <c r="B468" s="3">
         <v>332</v>
@@ -10289,7 +12094,7 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="14" t="s">
-        <v>582</v>
+        <v>1063</v>
       </c>
       <c r="B469" s="3">
         <v>263</v>
@@ -10306,7 +12111,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="14" t="s">
-        <v>583</v>
+        <v>1064</v>
       </c>
       <c r="B470" s="3">
         <v>382</v>
@@ -10323,7 +12128,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="14" t="s">
-        <v>584</v>
+        <v>1065</v>
       </c>
       <c r="B471" s="3">
         <v>383</v>
@@ -10340,7 +12145,7 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="14" t="s">
-        <v>585</v>
+        <v>1066</v>
       </c>
       <c r="B472" s="3">
         <v>314</v>
@@ -10357,7 +12162,7 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="14" t="s">
-        <v>586</v>
+        <v>1067</v>
       </c>
       <c r="B473" s="3">
         <v>224</v>
@@ -10374,7 +12179,7 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="14" t="s">
-        <v>587</v>
+        <v>1068</v>
       </c>
       <c r="B474" s="3">
         <v>408</v>
@@ -10391,7 +12196,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="14" t="s">
-        <v>588</v>
+        <v>1069</v>
       </c>
       <c r="B475" s="3">
         <v>222</v>
@@ -10408,7 +12213,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="14" t="s">
-        <v>467</v>
+        <v>1070</v>
       </c>
       <c r="B476" s="3">
         <v>98</v>
@@ -10425,7 +12230,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="14" t="s">
-        <v>468</v>
+        <v>1071</v>
       </c>
       <c r="B477" s="3">
         <v>132</v>
@@ -10442,7 +12247,7 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="14" t="s">
-        <v>589</v>
+        <v>1072</v>
       </c>
       <c r="B478" s="3">
         <v>176</v>
@@ -10459,7 +12264,7 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="14" t="s">
-        <v>469</v>
+        <v>1073</v>
       </c>
       <c r="B479" s="3">
         <v>111</v>
@@ -10476,7 +12281,7 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="14" t="s">
-        <v>470</v>
+        <v>1074</v>
       </c>
       <c r="B480" s="3">
         <v>239</v>
@@ -10493,7 +12298,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="14" t="s">
-        <v>471</v>
+        <v>1075</v>
       </c>
       <c r="B481" s="3">
         <v>384</v>
@@ -10508,9 +12313,9 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="14" t="s">
-        <v>472</v>
+        <v>1076</v>
       </c>
       <c r="B482" s="3">
         <v>167</v>
@@ -10525,9 +12330,9 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="14" t="s">
-        <v>473</v>
+        <v>1077</v>
       </c>
       <c r="B483" s="3">
         <v>158</v>
@@ -10544,7 +12349,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="14" t="s">
-        <v>474</v>
+        <v>1078</v>
       </c>
       <c r="B484" s="3">
         <v>101</v>
@@ -10561,7 +12366,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="14" t="s">
-        <v>475</v>
+        <v>1079</v>
       </c>
       <c r="B485" s="3">
         <v>273</v>
@@ -10578,7 +12383,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="14" t="s">
-        <v>476</v>
+        <v>1080</v>
       </c>
       <c r="B486" s="3">
         <v>342</v>
@@ -10595,7 +12400,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="14" t="s">
-        <v>477</v>
+        <v>1081</v>
       </c>
       <c r="B487" s="3">
         <v>25</v>
@@ -10612,7 +12417,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="14" t="s">
-        <v>478</v>
+        <v>1082</v>
       </c>
       <c r="B488" s="3">
         <v>511</v>
@@ -10629,7 +12434,7 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="14" t="s">
-        <v>479</v>
+        <v>1083</v>
       </c>
       <c r="B489" s="3">
         <v>367</v>
@@ -10646,14 +12451,12 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="14" t="s">
-        <v>480</v>
+        <v>1084</v>
       </c>
       <c r="B490" s="3">
         <v>169</v>
       </c>
-      <c r="C490" s="3" t="s">
-        <v>405</v>
-      </c>
+      <c r="C490" s="3"/>
       <c r="D490" s="3">
         <v>16.5</v>
       </c>
@@ -10663,7 +12466,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="14" t="s">
-        <v>481</v>
+        <v>1085</v>
       </c>
       <c r="B491" s="3">
         <v>580</v>
@@ -10680,7 +12483,7 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="14" t="s">
-        <v>482</v>
+        <v>1086</v>
       </c>
       <c r="B492" s="3">
         <v>811</v>
@@ -10697,7 +12500,7 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="14" t="s">
-        <v>483</v>
+        <v>1087</v>
       </c>
       <c r="B493" s="3">
         <v>896</v>
@@ -10714,7 +12517,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="14" t="s">
-        <v>484</v>
+        <v>1088</v>
       </c>
       <c r="B494" s="3">
         <v>509</v>
@@ -10731,7 +12534,7 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="14" t="s">
-        <v>485</v>
+        <v>1089</v>
       </c>
       <c r="B495" s="3">
         <v>347</v>
@@ -10748,7 +12551,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="14" t="s">
-        <v>486</v>
+        <v>1090</v>
       </c>
       <c r="B496" s="3">
         <v>442</v>
@@ -10765,7 +12568,7 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="14" t="s">
-        <v>487</v>
+        <v>1091</v>
       </c>
       <c r="B497" s="3">
         <v>83</v>
@@ -10782,7 +12585,7 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="14" t="s">
-        <v>488</v>
+        <v>1092</v>
       </c>
       <c r="B498" s="3">
         <v>48</v>
@@ -10799,7 +12602,7 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="14" t="s">
-        <v>489</v>
+        <v>1093</v>
       </c>
       <c r="B499" s="3">
         <v>35</v>
@@ -10816,7 +12619,7 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="14" t="s">
-        <v>490</v>
+        <v>1094</v>
       </c>
       <c r="B500" s="3">
         <v>45</v>
@@ -10833,7 +12636,7 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="14" t="s">
-        <v>491</v>
+        <v>1095</v>
       </c>
       <c r="B501" s="3">
         <v>48</v>
@@ -10850,7 +12653,7 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="14" t="s">
-        <v>492</v>
+        <v>1096</v>
       </c>
       <c r="B502" s="3">
         <v>45</v>
@@ -10867,7 +12670,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="14" t="s">
-        <v>493</v>
+        <v>1097</v>
       </c>
       <c r="B503" s="3">
         <v>19</v>
@@ -10884,7 +12687,7 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="14" t="s">
-        <v>494</v>
+        <v>1098</v>
       </c>
       <c r="B504" s="3">
         <v>45</v>
@@ -10901,7 +12704,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="14" t="s">
-        <v>495</v>
+        <v>1099</v>
       </c>
       <c r="B505" s="3">
         <v>42</v>
@@ -10918,7 +12721,7 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="14" t="s">
-        <v>496</v>
+        <v>1100</v>
       </c>
       <c r="B506" s="3">
         <v>262</v>
@@ -10935,7 +12738,7 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="14" t="s">
-        <v>497</v>
+        <v>1101</v>
       </c>
       <c r="B507" s="3">
         <v>97</v>
@@ -10952,7 +12755,7 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="14" t="s">
-        <v>498</v>
+        <v>1102</v>
       </c>
       <c r="B508" s="3">
         <v>83</v>
@@ -10969,7 +12772,7 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="14" t="s">
-        <v>499</v>
+        <v>1103</v>
       </c>
       <c r="B509" s="3">
         <v>117</v>
@@ -10986,7 +12789,7 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="14" t="s">
-        <v>500</v>
+        <v>1104</v>
       </c>
       <c r="B510" s="3">
         <v>39</v>
@@ -11003,14 +12806,12 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="14" t="s">
-        <v>501</v>
+        <v>1105</v>
       </c>
       <c r="B511" s="3">
         <v>81</v>
       </c>
-      <c r="C511" s="3" t="s">
-        <v>405</v>
-      </c>
+      <c r="C511" s="3"/>
       <c r="D511" s="3">
         <v>18.399999999999999</v>
       </c>
@@ -11020,7 +12821,7 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="14" t="s">
-        <v>502</v>
+        <v>1106</v>
       </c>
       <c r="B512" s="3">
         <v>39</v>
@@ -11037,7 +12838,7 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="14" t="s">
-        <v>503</v>
+        <v>1107</v>
       </c>
       <c r="B513" s="3">
         <v>24</v>
@@ -11054,7 +12855,7 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="14" t="s">
-        <v>504</v>
+        <v>1108</v>
       </c>
       <c r="B514" s="3">
         <v>26</v>
@@ -11071,7 +12872,7 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="14" t="s">
-        <v>505</v>
+        <v>1109</v>
       </c>
       <c r="B515" s="3">
         <v>218</v>
@@ -11088,7 +12889,7 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="14" t="s">
-        <v>506</v>
+        <v>1110</v>
       </c>
       <c r="B516" s="3">
         <v>243</v>
@@ -11105,7 +12906,7 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="14" t="s">
-        <v>507</v>
+        <v>1111</v>
       </c>
       <c r="B517" s="3">
         <v>264</v>
@@ -11122,7 +12923,7 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="14" t="s">
-        <v>508</v>
+        <v>1112</v>
       </c>
       <c r="B518" s="3">
         <v>389</v>
@@ -11139,7 +12940,7 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="14" t="s">
-        <v>509</v>
+        <v>1113</v>
       </c>
       <c r="B519" s="3">
         <v>134</v>
@@ -11156,7 +12957,7 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="14" t="s">
-        <v>510</v>
+        <v>1114</v>
       </c>
       <c r="B520" s="3">
         <v>186</v>
@@ -11173,7 +12974,7 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="14" t="s">
-        <v>511</v>
+        <v>1115</v>
       </c>
       <c r="B521" s="3">
         <v>54</v>
@@ -11188,9 +12989,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="14" t="s">
-        <v>512</v>
+        <v>1116</v>
       </c>
       <c r="B522" s="3">
         <v>291</v>
@@ -11207,7 +13008,7 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="14" t="s">
-        <v>513</v>
+        <v>1117</v>
       </c>
       <c r="B523" s="3">
         <v>218</v>
@@ -11224,7 +13025,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="14" t="s">
-        <v>514</v>
+        <v>1118</v>
       </c>
       <c r="B524" s="3">
         <v>162</v>
@@ -11241,7 +13042,7 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="14" t="s">
-        <v>515</v>
+        <v>1119</v>
       </c>
       <c r="B525" s="3">
         <v>343</v>
@@ -11258,7 +13059,7 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="14" t="s">
-        <v>516</v>
+        <v>1120</v>
       </c>
       <c r="B526" s="3">
         <v>177</v>
@@ -11275,7 +13076,7 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="14" t="s">
-        <v>517</v>
+        <v>1121</v>
       </c>
       <c r="B527" s="3">
         <v>70</v>
@@ -11292,7 +13093,7 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="14" t="s">
-        <v>518</v>
+        <v>1122</v>
       </c>
       <c r="B528" s="3">
         <v>311</v>
@@ -11309,7 +13110,7 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="14" t="s">
-        <v>519</v>
+        <v>1123</v>
       </c>
       <c r="B529" s="3">
         <v>28</v>
@@ -11326,7 +13127,7 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="14" t="s">
-        <v>520</v>
+        <v>1124</v>
       </c>
       <c r="B530" s="3">
         <v>126</v>
@@ -11343,7 +13144,7 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="14" t="s">
-        <v>521</v>
+        <v>1125</v>
       </c>
       <c r="B531" s="3">
         <v>127</v>
@@ -11360,7 +13161,7 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="14" t="s">
-        <v>522</v>
+        <v>1126</v>
       </c>
       <c r="B532" s="3">
         <v>153</v>
@@ -11375,9 +13176,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="14" t="s">
-        <v>523</v>
+        <v>1127</v>
       </c>
       <c r="B533" s="3">
         <v>252</v>
@@ -11394,7 +13195,7 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="14" t="s">
-        <v>524</v>
+        <v>1128</v>
       </c>
       <c r="B534" s="3">
         <v>190</v>
@@ -11411,7 +13212,7 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="14" t="s">
-        <v>525</v>
+        <v>1129</v>
       </c>
       <c r="B535" s="3">
         <v>96</v>
@@ -11428,7 +13229,7 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="14" t="s">
-        <v>526</v>
+        <v>1130</v>
       </c>
       <c r="B536" s="3">
         <v>519</v>
@@ -11445,7 +13246,7 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="14" t="s">
-        <v>527</v>
+        <v>1131</v>
       </c>
       <c r="B537" s="3">
         <v>553</v>
@@ -11462,7 +13263,7 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="14" t="s">
-        <v>528</v>
+        <v>1132</v>
       </c>
       <c r="B538" s="3">
         <v>124</v>
@@ -11479,7 +13280,7 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="14" t="s">
-        <v>529</v>
+        <v>1133</v>
       </c>
       <c r="B539" s="3">
         <v>130</v>
@@ -11496,7 +13297,7 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="14" t="s">
-        <v>530</v>
+        <v>1134</v>
       </c>
       <c r="B540" s="3">
         <v>125</v>
@@ -11513,7 +13314,7 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="14" t="s">
-        <v>531</v>
+        <v>1135</v>
       </c>
       <c r="B541" s="3">
         <v>239</v>
@@ -11530,7 +13331,7 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="14" t="s">
-        <v>532</v>
+        <v>1136</v>
       </c>
       <c r="B542" s="3">
         <v>102</v>
@@ -11547,7 +13348,7 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="14" t="s">
-        <v>533</v>
+        <v>1137</v>
       </c>
       <c r="B543" s="3">
         <v>326</v>
@@ -11564,7 +13365,7 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="14" t="s">
-        <v>534</v>
+        <v>1138</v>
       </c>
       <c r="B544" s="3">
         <v>225</v>
@@ -11581,7 +13382,7 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="14" t="s">
-        <v>535</v>
+        <v>1139</v>
       </c>
       <c r="B545" s="3">
         <v>364</v>
@@ -11598,7 +13399,7 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="14" t="s">
-        <v>536</v>
+        <v>1140</v>
       </c>
       <c r="B546" s="3">
         <v>69</v>
@@ -11615,7 +13416,7 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="14" t="s">
-        <v>537</v>
+        <v>1141</v>
       </c>
       <c r="B547" s="3">
         <v>606</v>
@@ -11632,7 +13433,7 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="14" t="s">
-        <v>538</v>
+        <v>1142</v>
       </c>
       <c r="B548" s="3">
         <v>47</v>
@@ -11649,7 +13450,7 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="14" t="s">
-        <v>539</v>
+        <v>1143</v>
       </c>
       <c r="B549" s="3">
         <v>154</v>
@@ -11666,7 +13467,7 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="14" t="s">
-        <v>540</v>
+        <v>1144</v>
       </c>
       <c r="B550" s="3">
         <v>252</v>
@@ -11683,7 +13484,7 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="14" t="s">
-        <v>541</v>
+        <v>1145</v>
       </c>
       <c r="B551" s="3">
         <v>25</v>
@@ -11700,7 +13501,7 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="14" t="s">
-        <v>542</v>
+        <v>1146</v>
       </c>
       <c r="B552" s="3">
         <v>117</v>
@@ -11717,7 +13518,7 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="14" t="s">
-        <v>543</v>
+        <v>1147</v>
       </c>
       <c r="B553" s="3">
         <v>113</v>
@@ -11734,7 +13535,7 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="14" t="s">
-        <v>544</v>
+        <v>1148</v>
       </c>
       <c r="B554" s="3">
         <v>152</v>
@@ -11751,7 +13552,7 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="14" t="s">
-        <v>545</v>
+        <v>1149</v>
       </c>
       <c r="B555" s="3">
         <v>157</v>
@@ -11768,7 +13569,7 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="14" t="s">
-        <v>546</v>
+        <v>1150</v>
       </c>
       <c r="B556" s="3">
         <v>217</v>
@@ -11785,7 +13586,7 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="6" t="s">
-        <v>547</v>
+        <v>1151</v>
       </c>
       <c r="B557" s="3">
         <v>85</v>
@@ -11802,7 +13603,7 @@
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="14" t="s">
-        <v>548</v>
+        <v>1152</v>
       </c>
       <c r="B558" s="3">
         <v>90</v>
@@ -11819,7 +13620,7 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="14" t="s">
-        <v>549</v>
+        <v>1153</v>
       </c>
       <c r="B559" s="3">
         <v>69</v>
@@ -11836,7 +13637,7 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="14" t="s">
-        <v>550</v>
+        <v>1154</v>
       </c>
       <c r="B560" s="3">
         <v>106</v>
@@ -11853,7 +13654,7 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="14" t="s">
-        <v>551</v>
+        <v>1155</v>
       </c>
       <c r="B561" s="3">
         <v>44</v>
@@ -11870,7 +13671,7 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="14" t="s">
-        <v>552</v>
+        <v>1156</v>
       </c>
       <c r="B562" s="3">
         <v>58</v>
@@ -11887,7 +13688,7 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="14" t="s">
-        <v>553</v>
+        <v>1157</v>
       </c>
       <c r="B563" s="3">
         <v>62</v>
@@ -11904,7 +13705,7 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="14" t="s">
-        <v>554</v>
+        <v>1158</v>
       </c>
       <c r="B564" s="3">
         <v>66</v>
@@ -11921,7 +13722,7 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="14" t="s">
-        <v>555</v>
+        <v>1159</v>
       </c>
       <c r="B565" s="3">
         <v>26</v>
@@ -11938,7 +13739,7 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="14" t="s">
-        <v>556</v>
+        <v>1160</v>
       </c>
       <c r="B566" s="3">
         <v>43</v>
@@ -11955,7 +13756,7 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="14" t="s">
-        <v>557</v>
+        <v>1161</v>
       </c>
       <c r="B567" s="3">
         <v>27</v>
@@ -11972,7 +13773,7 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="14" t="s">
-        <v>558</v>
+        <v>1162</v>
       </c>
       <c r="B568" s="3">
         <v>28</v>
@@ -11989,7 +13790,7 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="14" t="s">
-        <v>559</v>
+        <v>1163</v>
       </c>
       <c r="B569" s="3">
         <v>22</v>
@@ -12006,7 +13807,7 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="14" t="s">
-        <v>560</v>
+        <v>1164</v>
       </c>
       <c r="B570" s="3">
         <v>63</v>
@@ -12023,7 +13824,7 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="14" t="s">
-        <v>561</v>
+        <v>1165</v>
       </c>
       <c r="B571" s="3">
         <v>42</v>
@@ -12040,7 +13841,7 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="14" t="s">
-        <v>562</v>
+        <v>1166</v>
       </c>
       <c r="B572" s="3">
         <v>42</v>
@@ -12057,7 +13858,7 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="14" t="s">
-        <v>563</v>
+        <v>1167</v>
       </c>
       <c r="B573" s="3">
         <v>11</v>
@@ -12074,7 +13875,7 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="14" t="s">
-        <v>564</v>
+        <v>1168</v>
       </c>
       <c r="B574" s="3">
         <v>35</v>
@@ -12091,7 +13892,7 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="14" t="s">
-        <v>565</v>
+        <v>1169</v>
       </c>
       <c r="B575" s="3">
         <v>37</v>
@@ -12108,7 +13909,7 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="14" t="s">
-        <v>566</v>
+        <v>1170</v>
       </c>
       <c r="B576" s="3">
         <v>28</v>
@@ -12125,7 +13926,7 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="14" t="s">
-        <v>567</v>
+        <v>1171</v>
       </c>
       <c r="B577" s="3">
         <v>37</v>
@@ -12142,7 +13943,7 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="14" t="s">
-        <v>568</v>
+        <v>1172</v>
       </c>
       <c r="B578" s="3">
         <v>51</v>
@@ -12159,7 +13960,7 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="14" t="s">
-        <v>569</v>
+        <v>1173</v>
       </c>
       <c r="B579" s="3">
         <v>40</v>
@@ -12176,7 +13977,7 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="14" t="s">
-        <v>570</v>
+        <v>1174</v>
       </c>
       <c r="B580" s="3">
         <v>40</v>
@@ -12193,7 +13994,7 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="14" t="s">
-        <v>571</v>
+        <v>1175</v>
       </c>
       <c r="B581" s="3">
         <v>27</v>
@@ -12210,7 +14011,7 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="14" t="s">
-        <v>572</v>
+        <v>1176</v>
       </c>
       <c r="B582" s="3">
         <v>43</v>
@@ -12227,7 +14028,7 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="14" t="s">
-        <v>573</v>
+        <v>1177</v>
       </c>
       <c r="B583" s="3">
         <v>58</v>
@@ -12244,7 +14045,7 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="14" t="s">
-        <v>574</v>
+        <v>1178</v>
       </c>
       <c r="B584" s="3">
         <v>56</v>
@@ -12261,7 +14062,7 @@
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="14" t="s">
-        <v>575</v>
+        <v>1179</v>
       </c>
       <c r="B585" s="3">
         <v>39</v>
@@ -12278,7 +14079,7 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" s="14" t="s">
-        <v>576</v>
+        <v>1180</v>
       </c>
       <c r="B586" s="3">
         <v>25</v>
@@ -12295,7 +14096,7 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="14" t="s">
-        <v>577</v>
+        <v>1181</v>
       </c>
       <c r="B587" s="3">
         <v>210</v>
@@ -12312,7 +14113,7 @@
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" s="14" t="s">
-        <v>578</v>
+        <v>1182</v>
       </c>
       <c r="B588" s="3">
         <v>314</v>
@@ -12329,7 +14130,7 @@
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" s="14" t="s">
-        <v>579</v>
+        <v>1183</v>
       </c>
       <c r="B589" s="3">
         <v>124</v>
@@ -12346,7 +14147,7 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="14" t="s">
-        <v>568</v>
+        <v>1184</v>
       </c>
       <c r="B590" s="3">
         <v>51</v>
@@ -12363,7 +14164,7 @@
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="14" t="s">
-        <v>569</v>
+        <v>1185</v>
       </c>
       <c r="B591" s="3">
         <v>40</v>
@@ -12380,7 +14181,7 @@
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" s="14" t="s">
-        <v>570</v>
+        <v>1186</v>
       </c>
       <c r="B592" s="3">
         <v>40</v>
@@ -12397,7 +14198,7 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="14" t="s">
-        <v>571</v>
+        <v>1187</v>
       </c>
       <c r="B593" s="3">
         <v>27</v>
@@ -12414,7 +14215,7 @@
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" s="14" t="s">
-        <v>572</v>
+        <v>1188</v>
       </c>
       <c r="B594" s="3">
         <v>43</v>
@@ -12431,7 +14232,7 @@
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="14" t="s">
-        <v>573</v>
+        <v>1189</v>
       </c>
       <c r="B595" s="3">
         <v>58</v>
@@ -12448,7 +14249,7 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="14" t="s">
-        <v>574</v>
+        <v>1190</v>
       </c>
       <c r="B596" s="3">
         <v>56</v>
@@ -12465,7 +14266,7 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="14" t="s">
-        <v>575</v>
+        <v>1191</v>
       </c>
       <c r="B597" s="3">
         <v>39</v>
@@ -12482,7 +14283,7 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="14" t="s">
-        <v>576</v>
+        <v>1192</v>
       </c>
       <c r="B598" s="3">
         <v>25</v>
@@ -12499,7 +14300,7 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="14" t="s">
-        <v>577</v>
+        <v>1193</v>
       </c>
       <c r="B599" s="3">
         <v>210</v>
@@ -12516,7 +14317,7 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="14" t="s">
-        <v>578</v>
+        <v>1194</v>
       </c>
       <c r="B600" s="3">
         <v>314</v>
@@ -12533,7 +14334,7 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="14" t="s">
-        <v>579</v>
+        <v>1195</v>
       </c>
       <c r="B601" s="3">
         <v>124</v>
@@ -12546,6 +14347,23 @@
       </c>
       <c r="E601" s="3">
         <v>3.1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A602" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B602" s="2">
+        <v>117</v>
+      </c>
+      <c r="C602" s="2">
+        <v>3</v>
+      </c>
+      <c r="D602" s="2">
+        <v>20</v>
+      </c>
+      <c r="E602" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -12561,7 +14379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B607:B1048576 B1:B605">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
